--- a/Documents/Archive/DLYH_MECHANICS_CONCEPT.xlsx
+++ b/Documents/Archive/DLYH_MECHANICS_CONCEPT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\DontLoseYourHead\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\DontLoseYourHead\Documents\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33363255-5EF4-4F8F-A6D6-FFFCFA5E407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D975DD5E-E5DA-457E-A13D-67457878A7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2CF4C6FF-296F-4809-A32B-4EAC3125551D}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{2CF4C6FF-296F-4809-A32B-4EAC3125551D}"/>
   </bookViews>
   <sheets>
     <sheet name="claude playtest" sheetId="6" r:id="rId1"/>
@@ -2103,7 +2103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="467">
+  <cellXfs count="466">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2883,560 +2883,559 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16827,6 +16826,67 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>286615</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>96116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Picture 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B79AF38-2E0D-AF0C-308B-763015686151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="41078727" y="2060863"/>
+          <a:ext cx="1654752" cy="6919480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20067,22 +20127,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:54" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="279" t="s">
+      <c r="D1" s="290" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="281"/>
-      <c r="N1" s="288" t="s">
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="292"/>
+      <c r="N1" s="299" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="289"/>
-      <c r="P1" s="290"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="301"/>
       <c r="AA1" s="112" t="s">
         <v>52</v>
       </c>
@@ -20138,9 +20198,9 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="292"/>
-      <c r="P2" s="293"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="304"/>
       <c r="T2" s="109" t="s">
         <v>48</v>
       </c>
@@ -20204,9 +20264,9 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
       <c r="L3" s="18"/>
-      <c r="N3" s="294"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="296"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307"/>
       <c r="T3" s="109" t="s">
         <v>36</v>
       </c>
@@ -20373,14 +20433,14 @@
       <c r="P5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T5" s="285" t="s">
+      <c r="T5" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="286"/>
-      <c r="V5" s="286"/>
-      <c r="W5" s="286"/>
-      <c r="X5" s="286"/>
-      <c r="Y5" s="287"/>
+      <c r="U5" s="297"/>
+      <c r="V5" s="297"/>
+      <c r="W5" s="297"/>
+      <c r="X5" s="297"/>
+      <c r="Y5" s="298"/>
       <c r="AA5" s="112" t="s">
         <v>48</v>
       </c>
@@ -20944,23 +21004,23 @@
       </c>
     </row>
     <row r="15" spans="4:54" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="282" t="s">
+      <c r="D15" s="293" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="283"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="283"/>
-      <c r="H15" s="283"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="283"/>
-      <c r="K15" s="283"/>
-      <c r="L15" s="284"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="294"/>
+      <c r="J15" s="294"/>
+      <c r="K15" s="294"/>
+      <c r="L15" s="295"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="288" t="s">
+      <c r="N15" s="299" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="289"/>
-      <c r="P15" s="290"/>
+      <c r="O15" s="300"/>
+      <c r="P15" s="301"/>
       <c r="T15" s="109" t="s">
         <v>36</v>
       </c>
@@ -21017,9 +21077,9 @@
       <c r="K16" s="17"/>
       <c r="L16" s="18"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="291"/>
-      <c r="O16" s="292"/>
-      <c r="P16" s="293"/>
+      <c r="N16" s="302"/>
+      <c r="O16" s="303"/>
+      <c r="P16" s="304"/>
       <c r="AK16" s="109" t="s">
         <v>56</v>
       </c>
@@ -21069,17 +21129,17 @@
       <c r="K17" s="17"/>
       <c r="L17" s="18"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="294"/>
-      <c r="O17" s="295"/>
-      <c r="P17" s="296"/>
-      <c r="T17" s="285" t="s">
+      <c r="N17" s="305"/>
+      <c r="O17" s="306"/>
+      <c r="P17" s="307"/>
+      <c r="T17" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="286"/>
-      <c r="V17" s="286"/>
-      <c r="W17" s="286"/>
-      <c r="X17" s="286"/>
-      <c r="Y17" s="287"/>
+      <c r="U17" s="297"/>
+      <c r="V17" s="297"/>
+      <c r="W17" s="297"/>
+      <c r="X17" s="297"/>
+      <c r="Y17" s="298"/>
       <c r="AK17" s="109" t="s">
         <v>36</v>
       </c>
@@ -22174,279 +22234,279 @@
       <c r="DI1" s="175"/>
     </row>
     <row r="2" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="338" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="299"/>
-      <c r="P2" s="297" t="s">
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="339"/>
+      <c r="N2" s="340"/>
+      <c r="P2" s="338" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="298"/>
-      <c r="R2" s="298"/>
-      <c r="S2" s="298"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="298"/>
-      <c r="X2" s="298"/>
-      <c r="Y2" s="298"/>
-      <c r="Z2" s="298"/>
-      <c r="AA2" s="298"/>
-      <c r="AB2" s="298"/>
-      <c r="AC2" s="298"/>
-      <c r="AD2" s="298"/>
-      <c r="AE2" s="298"/>
-      <c r="AF2" s="298"/>
-      <c r="AG2" s="298"/>
-      <c r="AH2" s="298"/>
-      <c r="AI2" s="298"/>
-      <c r="AJ2" s="298"/>
-      <c r="AK2" s="298"/>
-      <c r="AL2" s="298"/>
-      <c r="AM2" s="298"/>
-      <c r="AN2" s="298"/>
-      <c r="AO2" s="298"/>
-      <c r="AP2" s="299"/>
-      <c r="AR2" s="297" t="s">
+      <c r="Q2" s="339"/>
+      <c r="R2" s="339"/>
+      <c r="S2" s="339"/>
+      <c r="T2" s="339"/>
+      <c r="U2" s="339"/>
+      <c r="V2" s="339"/>
+      <c r="W2" s="339"/>
+      <c r="X2" s="339"/>
+      <c r="Y2" s="339"/>
+      <c r="Z2" s="339"/>
+      <c r="AA2" s="339"/>
+      <c r="AB2" s="339"/>
+      <c r="AC2" s="339"/>
+      <c r="AD2" s="339"/>
+      <c r="AE2" s="339"/>
+      <c r="AF2" s="339"/>
+      <c r="AG2" s="339"/>
+      <c r="AH2" s="339"/>
+      <c r="AI2" s="339"/>
+      <c r="AJ2" s="339"/>
+      <c r="AK2" s="339"/>
+      <c r="AL2" s="339"/>
+      <c r="AM2" s="339"/>
+      <c r="AN2" s="339"/>
+      <c r="AO2" s="339"/>
+      <c r="AP2" s="340"/>
+      <c r="AR2" s="338" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="298"/>
-      <c r="AT2" s="298"/>
-      <c r="AU2" s="298"/>
-      <c r="AV2" s="298"/>
-      <c r="AW2" s="298"/>
-      <c r="AX2" s="298"/>
-      <c r="AY2" s="298"/>
-      <c r="AZ2" s="298"/>
-      <c r="BA2" s="298"/>
-      <c r="BB2" s="298"/>
-      <c r="BC2" s="298"/>
-      <c r="BD2" s="298"/>
-      <c r="BE2" s="298"/>
-      <c r="BF2" s="298"/>
-      <c r="BG2" s="298"/>
-      <c r="BH2" s="298"/>
-      <c r="BI2" s="298"/>
-      <c r="BJ2" s="298"/>
-      <c r="BK2" s="298"/>
-      <c r="BL2" s="298"/>
-      <c r="BM2" s="298"/>
-      <c r="BN2" s="298"/>
-      <c r="BO2" s="298"/>
-      <c r="BP2" s="298"/>
-      <c r="BQ2" s="298"/>
-      <c r="BR2" s="299"/>
-      <c r="BT2" s="297" t="s">
+      <c r="AS2" s="339"/>
+      <c r="AT2" s="339"/>
+      <c r="AU2" s="339"/>
+      <c r="AV2" s="339"/>
+      <c r="AW2" s="339"/>
+      <c r="AX2" s="339"/>
+      <c r="AY2" s="339"/>
+      <c r="AZ2" s="339"/>
+      <c r="BA2" s="339"/>
+      <c r="BB2" s="339"/>
+      <c r="BC2" s="339"/>
+      <c r="BD2" s="339"/>
+      <c r="BE2" s="339"/>
+      <c r="BF2" s="339"/>
+      <c r="BG2" s="339"/>
+      <c r="BH2" s="339"/>
+      <c r="BI2" s="339"/>
+      <c r="BJ2" s="339"/>
+      <c r="BK2" s="339"/>
+      <c r="BL2" s="339"/>
+      <c r="BM2" s="339"/>
+      <c r="BN2" s="339"/>
+      <c r="BO2" s="339"/>
+      <c r="BP2" s="339"/>
+      <c r="BQ2" s="339"/>
+      <c r="BR2" s="340"/>
+      <c r="BT2" s="338" t="s">
         <v>80</v>
       </c>
-      <c r="BU2" s="298"/>
-      <c r="BV2" s="298"/>
-      <c r="BW2" s="298"/>
-      <c r="BX2" s="298"/>
-      <c r="BY2" s="298"/>
-      <c r="BZ2" s="298"/>
-      <c r="CA2" s="298"/>
-      <c r="CB2" s="298"/>
-      <c r="CC2" s="298"/>
-      <c r="CD2" s="298"/>
-      <c r="CE2" s="298"/>
-      <c r="CF2" s="298"/>
-      <c r="CG2" s="298"/>
-      <c r="CH2" s="298"/>
-      <c r="CI2" s="298"/>
-      <c r="CJ2" s="298"/>
-      <c r="CK2" s="298"/>
-      <c r="CL2" s="298"/>
-      <c r="CM2" s="298"/>
-      <c r="CN2" s="298"/>
-      <c r="CO2" s="298"/>
-      <c r="CP2" s="298"/>
-      <c r="CQ2" s="298"/>
-      <c r="CR2" s="298"/>
-      <c r="CS2" s="298"/>
-      <c r="CT2" s="299"/>
+      <c r="BU2" s="339"/>
+      <c r="BV2" s="339"/>
+      <c r="BW2" s="339"/>
+      <c r="BX2" s="339"/>
+      <c r="BY2" s="339"/>
+      <c r="BZ2" s="339"/>
+      <c r="CA2" s="339"/>
+      <c r="CB2" s="339"/>
+      <c r="CC2" s="339"/>
+      <c r="CD2" s="339"/>
+      <c r="CE2" s="339"/>
+      <c r="CF2" s="339"/>
+      <c r="CG2" s="339"/>
+      <c r="CH2" s="339"/>
+      <c r="CI2" s="339"/>
+      <c r="CJ2" s="339"/>
+      <c r="CK2" s="339"/>
+      <c r="CL2" s="339"/>
+      <c r="CM2" s="339"/>
+      <c r="CN2" s="339"/>
+      <c r="CO2" s="339"/>
+      <c r="CP2" s="339"/>
+      <c r="CQ2" s="339"/>
+      <c r="CR2" s="339"/>
+      <c r="CS2" s="339"/>
+      <c r="CT2" s="340"/>
       <c r="CU2" s="175"/>
-      <c r="CV2" s="297" t="s">
+      <c r="CV2" s="338" t="s">
         <v>85</v>
       </c>
-      <c r="CW2" s="298"/>
-      <c r="CX2" s="298"/>
-      <c r="CY2" s="298"/>
-      <c r="CZ2" s="298"/>
-      <c r="DA2" s="298"/>
-      <c r="DB2" s="298"/>
-      <c r="DC2" s="298"/>
-      <c r="DD2" s="298"/>
-      <c r="DE2" s="298"/>
-      <c r="DF2" s="298"/>
-      <c r="DG2" s="298"/>
-      <c r="DH2" s="298"/>
-      <c r="DI2" s="298"/>
-      <c r="DJ2" s="298"/>
-      <c r="DK2" s="298"/>
-      <c r="DL2" s="298"/>
-      <c r="DM2" s="298"/>
-      <c r="DN2" s="298"/>
-      <c r="DO2" s="298"/>
-      <c r="DP2" s="298"/>
-      <c r="DQ2" s="298"/>
-      <c r="DR2" s="298"/>
-      <c r="DS2" s="298"/>
-      <c r="DT2" s="298"/>
-      <c r="DU2" s="298"/>
-      <c r="DV2" s="299"/>
+      <c r="CW2" s="339"/>
+      <c r="CX2" s="339"/>
+      <c r="CY2" s="339"/>
+      <c r="CZ2" s="339"/>
+      <c r="DA2" s="339"/>
+      <c r="DB2" s="339"/>
+      <c r="DC2" s="339"/>
+      <c r="DD2" s="339"/>
+      <c r="DE2" s="339"/>
+      <c r="DF2" s="339"/>
+      <c r="DG2" s="339"/>
+      <c r="DH2" s="339"/>
+      <c r="DI2" s="339"/>
+      <c r="DJ2" s="339"/>
+      <c r="DK2" s="339"/>
+      <c r="DL2" s="339"/>
+      <c r="DM2" s="339"/>
+      <c r="DN2" s="339"/>
+      <c r="DO2" s="339"/>
+      <c r="DP2" s="339"/>
+      <c r="DQ2" s="339"/>
+      <c r="DR2" s="339"/>
+      <c r="DS2" s="339"/>
+      <c r="DT2" s="339"/>
+      <c r="DU2" s="339"/>
+      <c r="DV2" s="340"/>
     </row>
     <row r="3" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="349" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="304"/>
-      <c r="K3" s="304"/>
-      <c r="L3" s="304"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="305"/>
-      <c r="P3" s="300" t="s">
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="350"/>
+      <c r="K3" s="350"/>
+      <c r="L3" s="350"/>
+      <c r="M3" s="350"/>
+      <c r="N3" s="351"/>
+      <c r="P3" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="301"/>
-      <c r="S3" s="301"/>
-      <c r="T3" s="301"/>
-      <c r="U3" s="301"/>
-      <c r="V3" s="301"/>
-      <c r="W3" s="301"/>
-      <c r="X3" s="321"/>
-      <c r="Y3" s="321"/>
-      <c r="Z3" s="321"/>
-      <c r="AA3" s="321"/>
-      <c r="AB3" s="322"/>
+      <c r="Q3" s="342"/>
+      <c r="R3" s="342"/>
+      <c r="S3" s="342"/>
+      <c r="T3" s="342"/>
+      <c r="U3" s="342"/>
+      <c r="V3" s="342"/>
+      <c r="W3" s="342"/>
+      <c r="X3" s="327"/>
+      <c r="Y3" s="327"/>
+      <c r="Z3" s="327"/>
+      <c r="AA3" s="327"/>
+      <c r="AB3" s="328"/>
       <c r="AC3" s="176"/>
-      <c r="AD3" s="300" t="s">
+      <c r="AD3" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="301"/>
-      <c r="AF3" s="301"/>
-      <c r="AG3" s="301"/>
-      <c r="AH3" s="301"/>
-      <c r="AI3" s="301"/>
-      <c r="AJ3" s="301"/>
-      <c r="AK3" s="301"/>
-      <c r="AL3" s="301"/>
-      <c r="AM3" s="301"/>
-      <c r="AN3" s="301"/>
-      <c r="AO3" s="301"/>
-      <c r="AP3" s="302"/>
-      <c r="AR3" s="323" t="s">
+      <c r="AE3" s="342"/>
+      <c r="AF3" s="342"/>
+      <c r="AG3" s="342"/>
+      <c r="AH3" s="342"/>
+      <c r="AI3" s="342"/>
+      <c r="AJ3" s="342"/>
+      <c r="AK3" s="342"/>
+      <c r="AL3" s="342"/>
+      <c r="AM3" s="342"/>
+      <c r="AN3" s="342"/>
+      <c r="AO3" s="342"/>
+      <c r="AP3" s="343"/>
+      <c r="AR3" s="344" t="s">
         <v>81</v>
       </c>
-      <c r="AS3" s="324"/>
-      <c r="AT3" s="324"/>
-      <c r="AU3" s="324"/>
-      <c r="AV3" s="324"/>
-      <c r="AW3" s="324"/>
-      <c r="AX3" s="324"/>
-      <c r="AY3" s="324"/>
-      <c r="AZ3" s="324"/>
-      <c r="BA3" s="324"/>
-      <c r="BB3" s="324"/>
-      <c r="BC3" s="324"/>
-      <c r="BD3" s="325"/>
+      <c r="AS3" s="345"/>
+      <c r="AT3" s="345"/>
+      <c r="AU3" s="345"/>
+      <c r="AV3" s="345"/>
+      <c r="AW3" s="345"/>
+      <c r="AX3" s="345"/>
+      <c r="AY3" s="345"/>
+      <c r="AZ3" s="345"/>
+      <c r="BA3" s="345"/>
+      <c r="BB3" s="345"/>
+      <c r="BC3" s="345"/>
+      <c r="BD3" s="346"/>
       <c r="BE3" s="176"/>
-      <c r="BF3" s="300" t="s">
+      <c r="BF3" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="BG3" s="301"/>
-      <c r="BH3" s="301"/>
-      <c r="BI3" s="301"/>
-      <c r="BJ3" s="301"/>
-      <c r="BK3" s="301"/>
-      <c r="BL3" s="301"/>
-      <c r="BM3" s="301"/>
-      <c r="BN3" s="301"/>
-      <c r="BO3" s="301"/>
-      <c r="BP3" s="301"/>
-      <c r="BQ3" s="301"/>
-      <c r="BR3" s="302"/>
-      <c r="BT3" s="300" t="s">
+      <c r="BG3" s="342"/>
+      <c r="BH3" s="342"/>
+      <c r="BI3" s="342"/>
+      <c r="BJ3" s="342"/>
+      <c r="BK3" s="342"/>
+      <c r="BL3" s="342"/>
+      <c r="BM3" s="342"/>
+      <c r="BN3" s="342"/>
+      <c r="BO3" s="342"/>
+      <c r="BP3" s="342"/>
+      <c r="BQ3" s="342"/>
+      <c r="BR3" s="343"/>
+      <c r="BT3" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="BU3" s="301"/>
-      <c r="BV3" s="301"/>
-      <c r="BW3" s="301"/>
-      <c r="BX3" s="301"/>
-      <c r="BY3" s="301"/>
-      <c r="BZ3" s="301"/>
-      <c r="CA3" s="301"/>
-      <c r="CB3" s="301"/>
-      <c r="CC3" s="301"/>
-      <c r="CD3" s="301"/>
-      <c r="CE3" s="301"/>
-      <c r="CF3" s="302"/>
+      <c r="BU3" s="342"/>
+      <c r="BV3" s="342"/>
+      <c r="BW3" s="342"/>
+      <c r="BX3" s="342"/>
+      <c r="BY3" s="342"/>
+      <c r="BZ3" s="342"/>
+      <c r="CA3" s="342"/>
+      <c r="CB3" s="342"/>
+      <c r="CC3" s="342"/>
+      <c r="CD3" s="342"/>
+      <c r="CE3" s="342"/>
+      <c r="CF3" s="343"/>
       <c r="CG3" s="176"/>
-      <c r="CH3" s="300" t="s">
+      <c r="CH3" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="CI3" s="301"/>
-      <c r="CJ3" s="301"/>
-      <c r="CK3" s="301"/>
-      <c r="CL3" s="301"/>
-      <c r="CM3" s="301"/>
-      <c r="CN3" s="301"/>
-      <c r="CO3" s="301"/>
-      <c r="CP3" s="301"/>
-      <c r="CQ3" s="301"/>
-      <c r="CR3" s="301"/>
-      <c r="CS3" s="301"/>
-      <c r="CT3" s="302"/>
+      <c r="CI3" s="342"/>
+      <c r="CJ3" s="342"/>
+      <c r="CK3" s="342"/>
+      <c r="CL3" s="342"/>
+      <c r="CM3" s="342"/>
+      <c r="CN3" s="342"/>
+      <c r="CO3" s="342"/>
+      <c r="CP3" s="342"/>
+      <c r="CQ3" s="342"/>
+      <c r="CR3" s="342"/>
+      <c r="CS3" s="342"/>
+      <c r="CT3" s="343"/>
       <c r="CU3" s="175"/>
-      <c r="CV3" s="300" t="s">
+      <c r="CV3" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="CW3" s="301"/>
-      <c r="CX3" s="301"/>
-      <c r="CY3" s="301"/>
-      <c r="CZ3" s="301"/>
-      <c r="DA3" s="301"/>
-      <c r="DB3" s="301"/>
-      <c r="DC3" s="301"/>
-      <c r="DD3" s="301"/>
-      <c r="DE3" s="301"/>
-      <c r="DF3" s="301"/>
-      <c r="DG3" s="301"/>
-      <c r="DH3" s="302"/>
-      <c r="DJ3" s="300" t="s">
+      <c r="CW3" s="342"/>
+      <c r="CX3" s="342"/>
+      <c r="CY3" s="342"/>
+      <c r="CZ3" s="342"/>
+      <c r="DA3" s="342"/>
+      <c r="DB3" s="342"/>
+      <c r="DC3" s="342"/>
+      <c r="DD3" s="342"/>
+      <c r="DE3" s="342"/>
+      <c r="DF3" s="342"/>
+      <c r="DG3" s="342"/>
+      <c r="DH3" s="343"/>
+      <c r="DJ3" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="DK3" s="301"/>
-      <c r="DL3" s="301"/>
-      <c r="DM3" s="301"/>
-      <c r="DN3" s="301"/>
-      <c r="DO3" s="301"/>
-      <c r="DP3" s="301"/>
-      <c r="DQ3" s="301"/>
-      <c r="DR3" s="301"/>
-      <c r="DS3" s="301"/>
-      <c r="DT3" s="301"/>
-      <c r="DU3" s="301"/>
-      <c r="DV3" s="302"/>
+      <c r="DK3" s="342"/>
+      <c r="DL3" s="342"/>
+      <c r="DM3" s="342"/>
+      <c r="DN3" s="342"/>
+      <c r="DO3" s="342"/>
+      <c r="DP3" s="342"/>
+      <c r="DQ3" s="342"/>
+      <c r="DR3" s="342"/>
+      <c r="DS3" s="342"/>
+      <c r="DT3" s="342"/>
+      <c r="DU3" s="342"/>
+      <c r="DV3" s="343"/>
     </row>
     <row r="4" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="177">
@@ -22486,13 +22546,13 @@
       <c r="U4" s="143"/>
       <c r="V4" s="187"/>
       <c r="W4" s="188"/>
-      <c r="X4" s="331" t="s">
+      <c r="X4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="321"/>
-      <c r="Z4" s="321"/>
-      <c r="AA4" s="321"/>
-      <c r="AB4" s="322"/>
+      <c r="Y4" s="327"/>
+      <c r="Z4" s="327"/>
+      <c r="AA4" s="327"/>
+      <c r="AB4" s="328"/>
       <c r="AC4" s="176"/>
       <c r="AD4" s="185">
         <v>1</v>
@@ -22510,13 +22570,13 @@
       <c r="AI4" s="143"/>
       <c r="AJ4" s="187"/>
       <c r="AK4" s="188"/>
-      <c r="AL4" s="331" t="s">
+      <c r="AL4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" s="321"/>
-      <c r="AN4" s="321"/>
-      <c r="AO4" s="321"/>
-      <c r="AP4" s="322"/>
+      <c r="AM4" s="327"/>
+      <c r="AN4" s="327"/>
+      <c r="AO4" s="327"/>
+      <c r="AP4" s="328"/>
       <c r="AR4" s="177">
         <v>1</v>
       </c>
@@ -22533,13 +22593,13 @@
       <c r="AW4" s="145"/>
       <c r="AX4" s="183"/>
       <c r="AY4" s="189"/>
-      <c r="AZ4" s="309" t="s">
+      <c r="AZ4" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="BA4" s="310"/>
-      <c r="BB4" s="310"/>
-      <c r="BC4" s="310"/>
-      <c r="BD4" s="311"/>
+      <c r="BA4" s="333"/>
+      <c r="BB4" s="333"/>
+      <c r="BC4" s="333"/>
+      <c r="BD4" s="334"/>
       <c r="BE4" s="176"/>
       <c r="BF4" s="185">
         <v>1</v>
@@ -22557,13 +22617,13 @@
       <c r="BK4" s="143"/>
       <c r="BL4" s="187"/>
       <c r="BM4" s="188"/>
-      <c r="BN4" s="331" t="s">
+      <c r="BN4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="BO4" s="321"/>
-      <c r="BP4" s="321"/>
-      <c r="BQ4" s="321"/>
-      <c r="BR4" s="322"/>
+      <c r="BO4" s="327"/>
+      <c r="BP4" s="327"/>
+      <c r="BQ4" s="327"/>
+      <c r="BR4" s="328"/>
       <c r="BT4" s="185">
         <v>1</v>
       </c>
@@ -22580,13 +22640,13 @@
       <c r="BY4" s="143"/>
       <c r="BZ4" s="187"/>
       <c r="CA4" s="188"/>
-      <c r="CB4" s="331" t="s">
+      <c r="CB4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="CC4" s="321"/>
-      <c r="CD4" s="321"/>
-      <c r="CE4" s="321"/>
-      <c r="CF4" s="322"/>
+      <c r="CC4" s="327"/>
+      <c r="CD4" s="327"/>
+      <c r="CE4" s="327"/>
+      <c r="CF4" s="328"/>
       <c r="CG4" s="176"/>
       <c r="CH4" s="185">
         <v>1</v>
@@ -22604,13 +22664,13 @@
       <c r="CM4" s="143"/>
       <c r="CN4" s="187"/>
       <c r="CO4" s="188"/>
-      <c r="CP4" s="331" t="s">
+      <c r="CP4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="CQ4" s="321"/>
-      <c r="CR4" s="321"/>
-      <c r="CS4" s="321"/>
-      <c r="CT4" s="322"/>
+      <c r="CQ4" s="327"/>
+      <c r="CR4" s="327"/>
+      <c r="CS4" s="327"/>
+      <c r="CT4" s="328"/>
       <c r="CU4" s="175"/>
       <c r="CV4" s="185">
         <v>1</v>
@@ -22628,13 +22688,13 @@
       <c r="DA4" s="143"/>
       <c r="DB4" s="187"/>
       <c r="DC4" s="188"/>
-      <c r="DD4" s="331" t="s">
+      <c r="DD4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="DE4" s="321"/>
-      <c r="DF4" s="321"/>
-      <c r="DG4" s="321"/>
-      <c r="DH4" s="322"/>
+      <c r="DE4" s="327"/>
+      <c r="DF4" s="327"/>
+      <c r="DG4" s="327"/>
+      <c r="DH4" s="328"/>
       <c r="DJ4" s="185">
         <v>1</v>
       </c>
@@ -22651,13 +22711,13 @@
       <c r="DO4" s="143"/>
       <c r="DP4" s="187"/>
       <c r="DQ4" s="188"/>
-      <c r="DR4" s="331" t="s">
+      <c r="DR4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="DS4" s="321"/>
-      <c r="DT4" s="321"/>
-      <c r="DU4" s="321"/>
-      <c r="DV4" s="322"/>
+      <c r="DS4" s="327"/>
+      <c r="DT4" s="327"/>
+      <c r="DU4" s="327"/>
+      <c r="DV4" s="328"/>
     </row>
     <row r="5" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="190">
@@ -22701,13 +22761,13 @@
       <c r="U5" s="195"/>
       <c r="V5" s="195"/>
       <c r="W5" s="197"/>
-      <c r="X5" s="332" t="s">
+      <c r="X5" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="Y5" s="333"/>
-      <c r="Z5" s="333"/>
-      <c r="AA5" s="333"/>
-      <c r="AB5" s="334"/>
+      <c r="Y5" s="315"/>
+      <c r="Z5" s="315"/>
+      <c r="AA5" s="315"/>
+      <c r="AB5" s="316"/>
       <c r="AC5" s="176"/>
       <c r="AD5" s="190">
         <v>2</v>
@@ -22727,13 +22787,13 @@
       <c r="AI5" s="195"/>
       <c r="AJ5" s="195"/>
       <c r="AK5" s="195"/>
-      <c r="AL5" s="332" t="s">
+      <c r="AL5" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="AM5" s="333"/>
-      <c r="AN5" s="333"/>
-      <c r="AO5" s="333"/>
-      <c r="AP5" s="334"/>
+      <c r="AM5" s="315"/>
+      <c r="AN5" s="315"/>
+      <c r="AO5" s="315"/>
+      <c r="AP5" s="316"/>
       <c r="AR5" s="190">
         <v>2</v>
       </c>
@@ -22752,13 +22812,13 @@
       <c r="AW5" s="143"/>
       <c r="AX5" s="195"/>
       <c r="AY5" s="197"/>
-      <c r="AZ5" s="312" t="s">
+      <c r="AZ5" s="317" t="s">
         <v>88</v>
       </c>
-      <c r="BA5" s="313"/>
-      <c r="BB5" s="313"/>
-      <c r="BC5" s="313"/>
-      <c r="BD5" s="314"/>
+      <c r="BA5" s="318"/>
+      <c r="BB5" s="318"/>
+      <c r="BC5" s="318"/>
+      <c r="BD5" s="319"/>
       <c r="BE5" s="176"/>
       <c r="BF5" s="190">
         <v>2</v>
@@ -22778,13 +22838,13 @@
       <c r="BK5" s="195"/>
       <c r="BL5" s="195"/>
       <c r="BM5" s="195"/>
-      <c r="BN5" s="332" t="s">
+      <c r="BN5" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="BO5" s="333"/>
-      <c r="BP5" s="333"/>
-      <c r="BQ5" s="333"/>
-      <c r="BR5" s="334"/>
+      <c r="BO5" s="315"/>
+      <c r="BP5" s="315"/>
+      <c r="BQ5" s="315"/>
+      <c r="BR5" s="316"/>
       <c r="BT5" s="190">
         <v>2</v>
       </c>
@@ -22803,13 +22863,13 @@
       <c r="BY5" s="195"/>
       <c r="BZ5" s="195"/>
       <c r="CA5" s="195"/>
-      <c r="CB5" s="332" t="s">
+      <c r="CB5" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="CC5" s="333"/>
-      <c r="CD5" s="333"/>
-      <c r="CE5" s="333"/>
-      <c r="CF5" s="334"/>
+      <c r="CC5" s="315"/>
+      <c r="CD5" s="315"/>
+      <c r="CE5" s="315"/>
+      <c r="CF5" s="316"/>
       <c r="CG5" s="176"/>
       <c r="CH5" s="190">
         <v>2</v>
@@ -22829,13 +22889,13 @@
       <c r="CM5" s="195"/>
       <c r="CN5" s="195"/>
       <c r="CO5" s="195"/>
-      <c r="CP5" s="332" t="s">
+      <c r="CP5" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="CQ5" s="333"/>
-      <c r="CR5" s="333"/>
-      <c r="CS5" s="333"/>
-      <c r="CT5" s="334"/>
+      <c r="CQ5" s="315"/>
+      <c r="CR5" s="315"/>
+      <c r="CS5" s="315"/>
+      <c r="CT5" s="316"/>
       <c r="CU5" s="175"/>
       <c r="CV5" s="190">
         <v>2</v>
@@ -22855,13 +22915,13 @@
       <c r="DA5" s="195"/>
       <c r="DB5" s="195"/>
       <c r="DC5" s="195"/>
-      <c r="DD5" s="332" t="s">
+      <c r="DD5" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="DE5" s="333"/>
-      <c r="DF5" s="333"/>
-      <c r="DG5" s="333"/>
-      <c r="DH5" s="334"/>
+      <c r="DE5" s="315"/>
+      <c r="DF5" s="315"/>
+      <c r="DG5" s="315"/>
+      <c r="DH5" s="316"/>
       <c r="DJ5" s="190">
         <v>2</v>
       </c>
@@ -22880,13 +22940,13 @@
       <c r="DO5" s="195"/>
       <c r="DP5" s="195"/>
       <c r="DQ5" s="195"/>
-      <c r="DR5" s="332" t="s">
+      <c r="DR5" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="DS5" s="333"/>
-      <c r="DT5" s="333"/>
-      <c r="DU5" s="333"/>
-      <c r="DV5" s="334"/>
+      <c r="DS5" s="315"/>
+      <c r="DT5" s="315"/>
+      <c r="DU5" s="315"/>
+      <c r="DV5" s="316"/>
     </row>
     <row r="6" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="190">
@@ -22934,13 +22994,13 @@
       </c>
       <c r="V6" s="195"/>
       <c r="W6" s="197"/>
-      <c r="X6" s="335" t="s">
+      <c r="X6" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="336"/>
-      <c r="Z6" s="336"/>
-      <c r="AA6" s="336"/>
-      <c r="AB6" s="337"/>
+      <c r="Y6" s="309"/>
+      <c r="Z6" s="309"/>
+      <c r="AA6" s="309"/>
+      <c r="AB6" s="310"/>
       <c r="AC6" s="176"/>
       <c r="AD6" s="190">
         <v>3</v>
@@ -22962,13 +23022,13 @@
       </c>
       <c r="AJ6" s="195"/>
       <c r="AK6" s="195"/>
-      <c r="AL6" s="335" t="s">
+      <c r="AL6" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="AM6" s="336"/>
-      <c r="AN6" s="336"/>
-      <c r="AO6" s="336"/>
-      <c r="AP6" s="337"/>
+      <c r="AM6" s="309"/>
+      <c r="AN6" s="309"/>
+      <c r="AO6" s="309"/>
+      <c r="AP6" s="310"/>
       <c r="AR6" s="190">
         <v>3</v>
       </c>
@@ -22989,13 +23049,13 @@
       </c>
       <c r="AX6" s="195"/>
       <c r="AY6" s="195"/>
-      <c r="AZ6" s="315" t="s">
+      <c r="AZ6" s="320" t="s">
         <v>82</v>
       </c>
-      <c r="BA6" s="316"/>
-      <c r="BB6" s="316"/>
-      <c r="BC6" s="316"/>
-      <c r="BD6" s="317"/>
+      <c r="BA6" s="321"/>
+      <c r="BB6" s="321"/>
+      <c r="BC6" s="321"/>
+      <c r="BD6" s="322"/>
       <c r="BE6" s="176"/>
       <c r="BF6" s="190">
         <v>3</v>
@@ -23017,13 +23077,13 @@
       </c>
       <c r="BL6" s="195"/>
       <c r="BM6" s="195"/>
-      <c r="BN6" s="335" t="s">
+      <c r="BN6" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="BO6" s="336"/>
-      <c r="BP6" s="336"/>
-      <c r="BQ6" s="336"/>
-      <c r="BR6" s="337"/>
+      <c r="BO6" s="309"/>
+      <c r="BP6" s="309"/>
+      <c r="BQ6" s="309"/>
+      <c r="BR6" s="310"/>
       <c r="BT6" s="190">
         <v>3</v>
       </c>
@@ -23044,13 +23104,13 @@
       </c>
       <c r="BZ6" s="195"/>
       <c r="CA6" s="195"/>
-      <c r="CB6" s="335" t="s">
+      <c r="CB6" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="CC6" s="336"/>
-      <c r="CD6" s="336"/>
-      <c r="CE6" s="336"/>
-      <c r="CF6" s="337"/>
+      <c r="CC6" s="309"/>
+      <c r="CD6" s="309"/>
+      <c r="CE6" s="309"/>
+      <c r="CF6" s="310"/>
       <c r="CG6" s="176"/>
       <c r="CH6" s="190">
         <v>3</v>
@@ -23072,13 +23132,13 @@
       </c>
       <c r="CN6" s="195"/>
       <c r="CO6" s="195"/>
-      <c r="CP6" s="335" t="s">
+      <c r="CP6" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="CQ6" s="336"/>
-      <c r="CR6" s="336"/>
-      <c r="CS6" s="336"/>
-      <c r="CT6" s="337"/>
+      <c r="CQ6" s="309"/>
+      <c r="CR6" s="309"/>
+      <c r="CS6" s="309"/>
+      <c r="CT6" s="310"/>
       <c r="CU6" s="175"/>
       <c r="CV6" s="190">
         <v>3</v>
@@ -23100,13 +23160,13 @@
       </c>
       <c r="DB6" s="195"/>
       <c r="DC6" s="195"/>
-      <c r="DD6" s="335" t="s">
+      <c r="DD6" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="DE6" s="336"/>
-      <c r="DF6" s="336"/>
-      <c r="DG6" s="336"/>
-      <c r="DH6" s="337"/>
+      <c r="DE6" s="309"/>
+      <c r="DF6" s="309"/>
+      <c r="DG6" s="309"/>
+      <c r="DH6" s="310"/>
       <c r="DJ6" s="190">
         <v>3</v>
       </c>
@@ -23127,13 +23187,13 @@
       </c>
       <c r="DP6" s="195"/>
       <c r="DQ6" s="195"/>
-      <c r="DR6" s="335" t="s">
+      <c r="DR6" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="DS6" s="336"/>
-      <c r="DT6" s="336"/>
-      <c r="DU6" s="336"/>
-      <c r="DV6" s="337"/>
+      <c r="DS6" s="309"/>
+      <c r="DT6" s="309"/>
+      <c r="DU6" s="309"/>
+      <c r="DV6" s="310"/>
     </row>
     <row r="7" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="158">
@@ -23171,13 +23231,13 @@
       <c r="U7" s="206"/>
       <c r="V7" s="206"/>
       <c r="W7" s="207"/>
-      <c r="X7" s="338" t="s">
+      <c r="X7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="Y7" s="339"/>
-      <c r="Z7" s="339"/>
-      <c r="AA7" s="339"/>
-      <c r="AB7" s="340"/>
+      <c r="Y7" s="312"/>
+      <c r="Z7" s="312"/>
+      <c r="AA7" s="312"/>
+      <c r="AB7" s="313"/>
       <c r="AC7" s="176"/>
       <c r="AD7" s="190">
         <v>4</v>
@@ -23201,13 +23261,13 @@
         <v>27</v>
       </c>
       <c r="AK7" s="206"/>
-      <c r="AL7" s="338" t="s">
+      <c r="AL7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" s="339"/>
-      <c r="AN7" s="339"/>
-      <c r="AO7" s="339"/>
-      <c r="AP7" s="340"/>
+      <c r="AM7" s="312"/>
+      <c r="AN7" s="312"/>
+      <c r="AO7" s="312"/>
+      <c r="AP7" s="313"/>
       <c r="AR7" s="205"/>
       <c r="AS7" s="206"/>
       <c r="AT7" s="206"/>
@@ -23216,13 +23276,13 @@
       <c r="AW7" s="206"/>
       <c r="AX7" s="206"/>
       <c r="AY7" s="206"/>
-      <c r="AZ7" s="318" t="s">
+      <c r="AZ7" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="BA7" s="319"/>
-      <c r="BB7" s="319"/>
-      <c r="BC7" s="319"/>
-      <c r="BD7" s="320"/>
+      <c r="BA7" s="324"/>
+      <c r="BB7" s="324"/>
+      <c r="BC7" s="324"/>
+      <c r="BD7" s="325"/>
       <c r="BE7" s="176"/>
       <c r="BF7" s="190">
         <v>4</v>
@@ -23246,13 +23306,13 @@
         <v>27</v>
       </c>
       <c r="BM7" s="206"/>
-      <c r="BN7" s="338" t="s">
+      <c r="BN7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="BO7" s="339"/>
-      <c r="BP7" s="339"/>
-      <c r="BQ7" s="339"/>
-      <c r="BR7" s="340"/>
+      <c r="BO7" s="312"/>
+      <c r="BP7" s="312"/>
+      <c r="BQ7" s="312"/>
+      <c r="BR7" s="313"/>
       <c r="BT7" s="205"/>
       <c r="BU7" s="206"/>
       <c r="BV7" s="206"/>
@@ -23261,13 +23321,13 @@
       <c r="BY7" s="206"/>
       <c r="BZ7" s="206"/>
       <c r="CA7" s="206"/>
-      <c r="CB7" s="338" t="s">
+      <c r="CB7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="CC7" s="339"/>
-      <c r="CD7" s="339"/>
-      <c r="CE7" s="339"/>
-      <c r="CF7" s="340"/>
+      <c r="CC7" s="312"/>
+      <c r="CD7" s="312"/>
+      <c r="CE7" s="312"/>
+      <c r="CF7" s="313"/>
       <c r="CG7" s="176"/>
       <c r="CH7" s="190">
         <v>4</v>
@@ -23291,13 +23351,13 @@
         <v>27</v>
       </c>
       <c r="CO7" s="206"/>
-      <c r="CP7" s="338" t="s">
+      <c r="CP7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="CQ7" s="339"/>
-      <c r="CR7" s="339"/>
-      <c r="CS7" s="339"/>
-      <c r="CT7" s="340"/>
+      <c r="CQ7" s="312"/>
+      <c r="CR7" s="312"/>
+      <c r="CS7" s="312"/>
+      <c r="CT7" s="313"/>
       <c r="CU7" s="175"/>
       <c r="CV7" s="205"/>
       <c r="CW7" s="206"/>
@@ -23307,13 +23367,13 @@
       <c r="DA7" s="206"/>
       <c r="DB7" s="206"/>
       <c r="DC7" s="206"/>
-      <c r="DD7" s="338" t="s">
+      <c r="DD7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="DE7" s="339"/>
-      <c r="DF7" s="339"/>
-      <c r="DG7" s="339"/>
-      <c r="DH7" s="340"/>
+      <c r="DE7" s="312"/>
+      <c r="DF7" s="312"/>
+      <c r="DG7" s="312"/>
+      <c r="DH7" s="313"/>
       <c r="DJ7" s="190">
         <v>4</v>
       </c>
@@ -23336,13 +23396,13 @@
         <v>27</v>
       </c>
       <c r="DQ7" s="206"/>
-      <c r="DR7" s="338" t="s">
+      <c r="DR7" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="DS7" s="339"/>
-      <c r="DT7" s="339"/>
-      <c r="DU7" s="339"/>
-      <c r="DV7" s="340"/>
+      <c r="DS7" s="312"/>
+      <c r="DT7" s="312"/>
+      <c r="DU7" s="312"/>
+      <c r="DV7" s="313"/>
     </row>
     <row r="8" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="208" t="s">
@@ -26117,145 +26177,145 @@
       <c r="DV23" s="241"/>
     </row>
     <row r="24" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="306" t="s">
+      <c r="B24" s="335" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="307"/>
-      <c r="D24" s="307"/>
-      <c r="E24" s="307"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="307"/>
-      <c r="H24" s="307"/>
-      <c r="I24" s="307"/>
-      <c r="J24" s="307"/>
-      <c r="K24" s="307"/>
-      <c r="L24" s="307"/>
-      <c r="M24" s="307"/>
-      <c r="N24" s="308"/>
-      <c r="P24" s="326" t="s">
+      <c r="C24" s="336"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="336"/>
+      <c r="G24" s="336"/>
+      <c r="H24" s="336"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="336"/>
+      <c r="L24" s="336"/>
+      <c r="M24" s="336"/>
+      <c r="N24" s="337"/>
+      <c r="P24" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="327"/>
-      <c r="R24" s="327"/>
-      <c r="S24" s="327"/>
-      <c r="T24" s="327"/>
-      <c r="U24" s="327"/>
-      <c r="V24" s="327"/>
-      <c r="W24" s="327"/>
-      <c r="X24" s="327"/>
-      <c r="Y24" s="327"/>
-      <c r="Z24" s="327"/>
-      <c r="AA24" s="327"/>
-      <c r="AB24" s="328"/>
+      <c r="Q24" s="330"/>
+      <c r="R24" s="330"/>
+      <c r="S24" s="330"/>
+      <c r="T24" s="330"/>
+      <c r="U24" s="330"/>
+      <c r="V24" s="330"/>
+      <c r="W24" s="330"/>
+      <c r="X24" s="330"/>
+      <c r="Y24" s="330"/>
+      <c r="Z24" s="330"/>
+      <c r="AA24" s="330"/>
+      <c r="AB24" s="331"/>
       <c r="AC24" s="176"/>
-      <c r="AD24" s="326" t="s">
+      <c r="AD24" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="AE24" s="327"/>
-      <c r="AF24" s="327"/>
-      <c r="AG24" s="327"/>
-      <c r="AH24" s="327"/>
-      <c r="AI24" s="327"/>
-      <c r="AJ24" s="327"/>
-      <c r="AK24" s="327"/>
-      <c r="AL24" s="327"/>
-      <c r="AM24" s="327"/>
-      <c r="AN24" s="327"/>
-      <c r="AO24" s="327"/>
-      <c r="AP24" s="328"/>
-      <c r="AR24" s="329" t="s">
+      <c r="AE24" s="330"/>
+      <c r="AF24" s="330"/>
+      <c r="AG24" s="330"/>
+      <c r="AH24" s="330"/>
+      <c r="AI24" s="330"/>
+      <c r="AJ24" s="330"/>
+      <c r="AK24" s="330"/>
+      <c r="AL24" s="330"/>
+      <c r="AM24" s="330"/>
+      <c r="AN24" s="330"/>
+      <c r="AO24" s="330"/>
+      <c r="AP24" s="331"/>
+      <c r="AR24" s="347" t="s">
         <v>82</v>
       </c>
-      <c r="AS24" s="330"/>
-      <c r="AT24" s="330"/>
-      <c r="AU24" s="330"/>
-      <c r="AV24" s="330"/>
-      <c r="AW24" s="330"/>
-      <c r="AX24" s="330"/>
-      <c r="AY24" s="330"/>
-      <c r="AZ24" s="316"/>
-      <c r="BA24" s="316"/>
-      <c r="BB24" s="316"/>
-      <c r="BC24" s="316"/>
-      <c r="BD24" s="317"/>
+      <c r="AS24" s="348"/>
+      <c r="AT24" s="348"/>
+      <c r="AU24" s="348"/>
+      <c r="AV24" s="348"/>
+      <c r="AW24" s="348"/>
+      <c r="AX24" s="348"/>
+      <c r="AY24" s="348"/>
+      <c r="AZ24" s="321"/>
+      <c r="BA24" s="321"/>
+      <c r="BB24" s="321"/>
+      <c r="BC24" s="321"/>
+      <c r="BD24" s="322"/>
       <c r="BE24" s="176"/>
-      <c r="BF24" s="326" t="s">
+      <c r="BF24" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="BG24" s="327"/>
-      <c r="BH24" s="327"/>
-      <c r="BI24" s="327"/>
-      <c r="BJ24" s="327"/>
-      <c r="BK24" s="327"/>
-      <c r="BL24" s="327"/>
-      <c r="BM24" s="327"/>
-      <c r="BN24" s="327"/>
-      <c r="BO24" s="327"/>
-      <c r="BP24" s="327"/>
-      <c r="BQ24" s="327"/>
-      <c r="BR24" s="328"/>
-      <c r="BT24" s="326" t="s">
+      <c r="BG24" s="330"/>
+      <c r="BH24" s="330"/>
+      <c r="BI24" s="330"/>
+      <c r="BJ24" s="330"/>
+      <c r="BK24" s="330"/>
+      <c r="BL24" s="330"/>
+      <c r="BM24" s="330"/>
+      <c r="BN24" s="330"/>
+      <c r="BO24" s="330"/>
+      <c r="BP24" s="330"/>
+      <c r="BQ24" s="330"/>
+      <c r="BR24" s="331"/>
+      <c r="BT24" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="BU24" s="327"/>
-      <c r="BV24" s="327"/>
-      <c r="BW24" s="327"/>
-      <c r="BX24" s="327"/>
-      <c r="BY24" s="327"/>
-      <c r="BZ24" s="327"/>
-      <c r="CA24" s="327"/>
-      <c r="CB24" s="327"/>
-      <c r="CC24" s="327"/>
-      <c r="CD24" s="327"/>
-      <c r="CE24" s="327"/>
-      <c r="CF24" s="328"/>
+      <c r="BU24" s="330"/>
+      <c r="BV24" s="330"/>
+      <c r="BW24" s="330"/>
+      <c r="BX24" s="330"/>
+      <c r="BY24" s="330"/>
+      <c r="BZ24" s="330"/>
+      <c r="CA24" s="330"/>
+      <c r="CB24" s="330"/>
+      <c r="CC24" s="330"/>
+      <c r="CD24" s="330"/>
+      <c r="CE24" s="330"/>
+      <c r="CF24" s="331"/>
       <c r="CG24" s="176"/>
-      <c r="CH24" s="326" t="s">
+      <c r="CH24" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="CI24" s="327"/>
-      <c r="CJ24" s="327"/>
-      <c r="CK24" s="327"/>
-      <c r="CL24" s="327"/>
-      <c r="CM24" s="327"/>
-      <c r="CN24" s="327"/>
-      <c r="CO24" s="327"/>
-      <c r="CP24" s="327"/>
-      <c r="CQ24" s="327"/>
-      <c r="CR24" s="327"/>
-      <c r="CS24" s="327"/>
-      <c r="CT24" s="328"/>
+      <c r="CI24" s="330"/>
+      <c r="CJ24" s="330"/>
+      <c r="CK24" s="330"/>
+      <c r="CL24" s="330"/>
+      <c r="CM24" s="330"/>
+      <c r="CN24" s="330"/>
+      <c r="CO24" s="330"/>
+      <c r="CP24" s="330"/>
+      <c r="CQ24" s="330"/>
+      <c r="CR24" s="330"/>
+      <c r="CS24" s="330"/>
+      <c r="CT24" s="331"/>
       <c r="CU24" s="175"/>
-      <c r="CV24" s="326" t="s">
+      <c r="CV24" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="CW24" s="327"/>
-      <c r="CX24" s="327"/>
-      <c r="CY24" s="327"/>
-      <c r="CZ24" s="327"/>
-      <c r="DA24" s="327"/>
-      <c r="DB24" s="327"/>
-      <c r="DC24" s="327"/>
-      <c r="DD24" s="327"/>
-      <c r="DE24" s="327"/>
-      <c r="DF24" s="327"/>
-      <c r="DG24" s="327"/>
-      <c r="DH24" s="328"/>
-      <c r="DJ24" s="326" t="s">
+      <c r="CW24" s="330"/>
+      <c r="CX24" s="330"/>
+      <c r="CY24" s="330"/>
+      <c r="CZ24" s="330"/>
+      <c r="DA24" s="330"/>
+      <c r="DB24" s="330"/>
+      <c r="DC24" s="330"/>
+      <c r="DD24" s="330"/>
+      <c r="DE24" s="330"/>
+      <c r="DF24" s="330"/>
+      <c r="DG24" s="330"/>
+      <c r="DH24" s="331"/>
+      <c r="DJ24" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="DK24" s="327"/>
-      <c r="DL24" s="327"/>
-      <c r="DM24" s="327"/>
-      <c r="DN24" s="327"/>
-      <c r="DO24" s="327"/>
-      <c r="DP24" s="327"/>
-      <c r="DQ24" s="327"/>
-      <c r="DR24" s="327"/>
-      <c r="DS24" s="327"/>
-      <c r="DT24" s="327"/>
-      <c r="DU24" s="327"/>
-      <c r="DV24" s="328"/>
+      <c r="DK24" s="330"/>
+      <c r="DL24" s="330"/>
+      <c r="DM24" s="330"/>
+      <c r="DN24" s="330"/>
+      <c r="DO24" s="330"/>
+      <c r="DP24" s="330"/>
+      <c r="DQ24" s="330"/>
+      <c r="DR24" s="330"/>
+      <c r="DS24" s="330"/>
+      <c r="DT24" s="330"/>
+      <c r="DU24" s="330"/>
+      <c r="DV24" s="331"/>
     </row>
     <row r="25" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="177">
@@ -26295,13 +26355,13 @@
       <c r="U25" s="143"/>
       <c r="V25" s="187"/>
       <c r="W25" s="188"/>
-      <c r="X25" s="331" t="s">
+      <c r="X25" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="Y25" s="321"/>
-      <c r="Z25" s="321"/>
-      <c r="AA25" s="321"/>
-      <c r="AB25" s="322"/>
+      <c r="Y25" s="327"/>
+      <c r="Z25" s="327"/>
+      <c r="AA25" s="327"/>
+      <c r="AB25" s="328"/>
       <c r="AC25" s="176"/>
       <c r="AD25" s="185">
         <v>1</v>
@@ -26319,13 +26379,13 @@
       <c r="AI25" s="143"/>
       <c r="AJ25" s="187"/>
       <c r="AK25" s="188"/>
-      <c r="AL25" s="331" t="s">
+      <c r="AL25" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="AM25" s="321"/>
-      <c r="AN25" s="321"/>
-      <c r="AO25" s="321"/>
-      <c r="AP25" s="322"/>
+      <c r="AM25" s="327"/>
+      <c r="AN25" s="327"/>
+      <c r="AO25" s="327"/>
+      <c r="AP25" s="328"/>
       <c r="AR25" s="185">
         <v>1</v>
       </c>
@@ -26342,13 +26402,13 @@
       <c r="AW25" s="143"/>
       <c r="AX25" s="187"/>
       <c r="AY25" s="188"/>
-      <c r="AZ25" s="309" t="s">
+      <c r="AZ25" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="BA25" s="310"/>
-      <c r="BB25" s="310"/>
-      <c r="BC25" s="310"/>
-      <c r="BD25" s="311"/>
+      <c r="BA25" s="333"/>
+      <c r="BB25" s="333"/>
+      <c r="BC25" s="333"/>
+      <c r="BD25" s="334"/>
       <c r="BE25" s="176"/>
       <c r="BF25" s="185">
         <v>1</v>
@@ -26366,13 +26426,13 @@
       <c r="BK25" s="143"/>
       <c r="BL25" s="187"/>
       <c r="BM25" s="188"/>
-      <c r="BN25" s="331" t="s">
+      <c r="BN25" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="BO25" s="321"/>
-      <c r="BP25" s="321"/>
-      <c r="BQ25" s="321"/>
-      <c r="BR25" s="322"/>
+      <c r="BO25" s="327"/>
+      <c r="BP25" s="327"/>
+      <c r="BQ25" s="327"/>
+      <c r="BR25" s="328"/>
       <c r="BT25" s="185">
         <v>1</v>
       </c>
@@ -26389,13 +26449,13 @@
       <c r="BY25" s="143"/>
       <c r="BZ25" s="187"/>
       <c r="CA25" s="188"/>
-      <c r="CB25" s="331" t="s">
+      <c r="CB25" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="CC25" s="321"/>
-      <c r="CD25" s="321"/>
-      <c r="CE25" s="321"/>
-      <c r="CF25" s="322"/>
+      <c r="CC25" s="327"/>
+      <c r="CD25" s="327"/>
+      <c r="CE25" s="327"/>
+      <c r="CF25" s="328"/>
       <c r="CG25" s="176"/>
       <c r="CH25" s="185">
         <v>1</v>
@@ -26413,13 +26473,13 @@
       <c r="CM25" s="143"/>
       <c r="CN25" s="187"/>
       <c r="CO25" s="188"/>
-      <c r="CP25" s="331" t="s">
+      <c r="CP25" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="CQ25" s="321"/>
-      <c r="CR25" s="321"/>
-      <c r="CS25" s="321"/>
-      <c r="CT25" s="322"/>
+      <c r="CQ25" s="327"/>
+      <c r="CR25" s="327"/>
+      <c r="CS25" s="327"/>
+      <c r="CT25" s="328"/>
       <c r="CU25" s="175"/>
       <c r="CV25" s="185">
         <v>1</v>
@@ -26437,13 +26497,13 @@
       <c r="DA25" s="143"/>
       <c r="DB25" s="187"/>
       <c r="DC25" s="188"/>
-      <c r="DD25" s="331" t="s">
+      <c r="DD25" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="DE25" s="321"/>
-      <c r="DF25" s="321"/>
-      <c r="DG25" s="321"/>
-      <c r="DH25" s="322"/>
+      <c r="DE25" s="327"/>
+      <c r="DF25" s="327"/>
+      <c r="DG25" s="327"/>
+      <c r="DH25" s="328"/>
       <c r="DJ25" s="185">
         <v>1</v>
       </c>
@@ -26460,13 +26520,13 @@
       <c r="DO25" s="143"/>
       <c r="DP25" s="187"/>
       <c r="DQ25" s="188"/>
-      <c r="DR25" s="331" t="s">
+      <c r="DR25" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="DS25" s="321"/>
-      <c r="DT25" s="321"/>
-      <c r="DU25" s="321"/>
-      <c r="DV25" s="322"/>
+      <c r="DS25" s="327"/>
+      <c r="DT25" s="327"/>
+      <c r="DU25" s="327"/>
+      <c r="DV25" s="328"/>
     </row>
     <row r="26" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="190">
@@ -26510,13 +26570,13 @@
       <c r="U26" s="195"/>
       <c r="V26" s="195"/>
       <c r="W26" s="195"/>
-      <c r="X26" s="332" t="s">
+      <c r="X26" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="Y26" s="333"/>
-      <c r="Z26" s="333"/>
-      <c r="AA26" s="333"/>
-      <c r="AB26" s="334"/>
+      <c r="Y26" s="315"/>
+      <c r="Z26" s="315"/>
+      <c r="AA26" s="315"/>
+      <c r="AB26" s="316"/>
       <c r="AC26" s="176"/>
       <c r="AD26" s="190">
         <v>2</v>
@@ -26536,13 +26596,13 @@
       <c r="AI26" s="195"/>
       <c r="AJ26" s="195"/>
       <c r="AK26" s="195"/>
-      <c r="AL26" s="332" t="s">
+      <c r="AL26" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="AM26" s="333"/>
-      <c r="AN26" s="333"/>
-      <c r="AO26" s="333"/>
-      <c r="AP26" s="334"/>
+      <c r="AM26" s="315"/>
+      <c r="AN26" s="315"/>
+      <c r="AO26" s="315"/>
+      <c r="AP26" s="316"/>
       <c r="AR26" s="190">
         <v>2</v>
       </c>
@@ -26561,13 +26621,13 @@
       <c r="AW26" s="143"/>
       <c r="AX26" s="195"/>
       <c r="AY26" s="197"/>
-      <c r="AZ26" s="312" t="s">
+      <c r="AZ26" s="317" t="s">
         <v>88</v>
       </c>
-      <c r="BA26" s="313"/>
-      <c r="BB26" s="313"/>
-      <c r="BC26" s="313"/>
-      <c r="BD26" s="314"/>
+      <c r="BA26" s="318"/>
+      <c r="BB26" s="318"/>
+      <c r="BC26" s="318"/>
+      <c r="BD26" s="319"/>
       <c r="BE26" s="176"/>
       <c r="BF26" s="190">
         <v>2</v>
@@ -26587,13 +26647,13 @@
       <c r="BK26" s="195"/>
       <c r="BL26" s="195"/>
       <c r="BM26" s="195"/>
-      <c r="BN26" s="332" t="s">
+      <c r="BN26" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="BO26" s="333"/>
-      <c r="BP26" s="333"/>
-      <c r="BQ26" s="333"/>
-      <c r="BR26" s="334"/>
+      <c r="BO26" s="315"/>
+      <c r="BP26" s="315"/>
+      <c r="BQ26" s="315"/>
+      <c r="BR26" s="316"/>
       <c r="BT26" s="190">
         <v>2</v>
       </c>
@@ -26612,13 +26672,13 @@
       <c r="BY26" s="195"/>
       <c r="BZ26" s="195"/>
       <c r="CA26" s="195"/>
-      <c r="CB26" s="332" t="s">
+      <c r="CB26" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="CC26" s="333"/>
-      <c r="CD26" s="333"/>
-      <c r="CE26" s="333"/>
-      <c r="CF26" s="334"/>
+      <c r="CC26" s="315"/>
+      <c r="CD26" s="315"/>
+      <c r="CE26" s="315"/>
+      <c r="CF26" s="316"/>
       <c r="CG26" s="176"/>
       <c r="CH26" s="190">
         <v>2</v>
@@ -26638,13 +26698,13 @@
       <c r="CM26" s="195"/>
       <c r="CN26" s="195"/>
       <c r="CO26" s="195"/>
-      <c r="CP26" s="332" t="s">
+      <c r="CP26" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="CQ26" s="333"/>
-      <c r="CR26" s="333"/>
-      <c r="CS26" s="333"/>
-      <c r="CT26" s="334"/>
+      <c r="CQ26" s="315"/>
+      <c r="CR26" s="315"/>
+      <c r="CS26" s="315"/>
+      <c r="CT26" s="316"/>
       <c r="CU26" s="175"/>
       <c r="CV26" s="190">
         <v>2</v>
@@ -26664,13 +26724,13 @@
       <c r="DA26" s="195"/>
       <c r="DB26" s="195"/>
       <c r="DC26" s="195"/>
-      <c r="DD26" s="332" t="s">
+      <c r="DD26" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="DE26" s="333"/>
-      <c r="DF26" s="333"/>
-      <c r="DG26" s="333"/>
-      <c r="DH26" s="334"/>
+      <c r="DE26" s="315"/>
+      <c r="DF26" s="315"/>
+      <c r="DG26" s="315"/>
+      <c r="DH26" s="316"/>
       <c r="DJ26" s="190">
         <v>2</v>
       </c>
@@ -26689,13 +26749,13 @@
       <c r="DO26" s="195"/>
       <c r="DP26" s="195"/>
       <c r="DQ26" s="195"/>
-      <c r="DR26" s="332" t="s">
+      <c r="DR26" s="314" t="s">
         <v>87</v>
       </c>
-      <c r="DS26" s="333"/>
-      <c r="DT26" s="333"/>
-      <c r="DU26" s="333"/>
-      <c r="DV26" s="334"/>
+      <c r="DS26" s="315"/>
+      <c r="DT26" s="315"/>
+      <c r="DU26" s="315"/>
+      <c r="DV26" s="316"/>
     </row>
     <row r="27" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="190">
@@ -26743,13 +26803,13 @@
       </c>
       <c r="V27" s="195"/>
       <c r="W27" s="195"/>
-      <c r="X27" s="335" t="s">
+      <c r="X27" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="Y27" s="336"/>
-      <c r="Z27" s="336"/>
-      <c r="AA27" s="336"/>
-      <c r="AB27" s="337"/>
+      <c r="Y27" s="309"/>
+      <c r="Z27" s="309"/>
+      <c r="AA27" s="309"/>
+      <c r="AB27" s="310"/>
       <c r="AC27" s="176"/>
       <c r="AD27" s="190">
         <v>3</v>
@@ -26771,13 +26831,13 @@
       </c>
       <c r="AJ27" s="195"/>
       <c r="AK27" s="195"/>
-      <c r="AL27" s="335" t="s">
+      <c r="AL27" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="AM27" s="336"/>
-      <c r="AN27" s="336"/>
-      <c r="AO27" s="336"/>
-      <c r="AP27" s="337"/>
+      <c r="AM27" s="309"/>
+      <c r="AN27" s="309"/>
+      <c r="AO27" s="309"/>
+      <c r="AP27" s="310"/>
       <c r="AR27" s="190">
         <v>3</v>
       </c>
@@ -26798,13 +26858,13 @@
       </c>
       <c r="AX27" s="195"/>
       <c r="AY27" s="195"/>
-      <c r="AZ27" s="315" t="s">
+      <c r="AZ27" s="320" t="s">
         <v>82</v>
       </c>
-      <c r="BA27" s="316"/>
-      <c r="BB27" s="316"/>
-      <c r="BC27" s="316"/>
-      <c r="BD27" s="317"/>
+      <c r="BA27" s="321"/>
+      <c r="BB27" s="321"/>
+      <c r="BC27" s="321"/>
+      <c r="BD27" s="322"/>
       <c r="BE27" s="176"/>
       <c r="BF27" s="190">
         <v>3</v>
@@ -26826,13 +26886,13 @@
       </c>
       <c r="BL27" s="195"/>
       <c r="BM27" s="195"/>
-      <c r="BN27" s="335" t="s">
+      <c r="BN27" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="BO27" s="336"/>
-      <c r="BP27" s="336"/>
-      <c r="BQ27" s="336"/>
-      <c r="BR27" s="337"/>
+      <c r="BO27" s="309"/>
+      <c r="BP27" s="309"/>
+      <c r="BQ27" s="309"/>
+      <c r="BR27" s="310"/>
       <c r="BT27" s="190">
         <v>3</v>
       </c>
@@ -26853,13 +26913,13 @@
       </c>
       <c r="BZ27" s="195"/>
       <c r="CA27" s="195"/>
-      <c r="CB27" s="335" t="s">
+      <c r="CB27" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="CC27" s="336"/>
-      <c r="CD27" s="336"/>
-      <c r="CE27" s="336"/>
-      <c r="CF27" s="337"/>
+      <c r="CC27" s="309"/>
+      <c r="CD27" s="309"/>
+      <c r="CE27" s="309"/>
+      <c r="CF27" s="310"/>
       <c r="CG27" s="176"/>
       <c r="CH27" s="190">
         <v>3</v>
@@ -26881,13 +26941,13 @@
       </c>
       <c r="CN27" s="195"/>
       <c r="CO27" s="195"/>
-      <c r="CP27" s="335" t="s">
+      <c r="CP27" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="CQ27" s="336"/>
-      <c r="CR27" s="336"/>
-      <c r="CS27" s="336"/>
-      <c r="CT27" s="337"/>
+      <c r="CQ27" s="309"/>
+      <c r="CR27" s="309"/>
+      <c r="CS27" s="309"/>
+      <c r="CT27" s="310"/>
       <c r="CU27" s="175"/>
       <c r="CV27" s="190">
         <v>3</v>
@@ -26909,13 +26969,13 @@
       </c>
       <c r="DB27" s="195"/>
       <c r="DC27" s="195"/>
-      <c r="DD27" s="335" t="s">
+      <c r="DD27" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="DE27" s="336"/>
-      <c r="DF27" s="336"/>
-      <c r="DG27" s="336"/>
-      <c r="DH27" s="337"/>
+      <c r="DE27" s="309"/>
+      <c r="DF27" s="309"/>
+      <c r="DG27" s="309"/>
+      <c r="DH27" s="310"/>
       <c r="DJ27" s="190">
         <v>3</v>
       </c>
@@ -26936,13 +26996,13 @@
       </c>
       <c r="DP27" s="195"/>
       <c r="DQ27" s="195"/>
-      <c r="DR27" s="335" t="s">
+      <c r="DR27" s="308" t="s">
         <v>38</v>
       </c>
-      <c r="DS27" s="336"/>
-      <c r="DT27" s="336"/>
-      <c r="DU27" s="336"/>
-      <c r="DV27" s="337"/>
+      <c r="DS27" s="309"/>
+      <c r="DT27" s="309"/>
+      <c r="DU27" s="309"/>
+      <c r="DV27" s="310"/>
     </row>
     <row r="28" spans="2:126" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="158">
@@ -26980,13 +27040,13 @@
       <c r="U28" s="206"/>
       <c r="V28" s="206"/>
       <c r="W28" s="206"/>
-      <c r="X28" s="338" t="s">
+      <c r="X28" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="Y28" s="339"/>
-      <c r="Z28" s="339"/>
-      <c r="AA28" s="339"/>
-      <c r="AB28" s="340"/>
+      <c r="Y28" s="312"/>
+      <c r="Z28" s="312"/>
+      <c r="AA28" s="312"/>
+      <c r="AB28" s="313"/>
       <c r="AC28" s="176"/>
       <c r="AD28" s="190">
         <v>4</v>
@@ -27010,13 +27070,13 @@
         <v>27</v>
       </c>
       <c r="AK28" s="206"/>
-      <c r="AL28" s="338" t="s">
+      <c r="AL28" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="AM28" s="339"/>
-      <c r="AN28" s="339"/>
-      <c r="AO28" s="339"/>
-      <c r="AP28" s="340"/>
+      <c r="AM28" s="312"/>
+      <c r="AN28" s="312"/>
+      <c r="AO28" s="312"/>
+      <c r="AP28" s="313"/>
       <c r="AR28" s="205"/>
       <c r="AS28" s="206"/>
       <c r="AT28" s="206"/>
@@ -27025,13 +27085,13 @@
       <c r="AW28" s="206"/>
       <c r="AX28" s="206"/>
       <c r="AY28" s="206"/>
-      <c r="AZ28" s="318" t="s">
+      <c r="AZ28" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="BA28" s="319"/>
-      <c r="BB28" s="319"/>
-      <c r="BC28" s="319"/>
-      <c r="BD28" s="320"/>
+      <c r="BA28" s="324"/>
+      <c r="BB28" s="324"/>
+      <c r="BC28" s="324"/>
+      <c r="BD28" s="325"/>
       <c r="BE28" s="176"/>
       <c r="BF28" s="190">
         <v>4</v>
@@ -27055,13 +27115,13 @@
         <v>27</v>
       </c>
       <c r="BM28" s="206"/>
-      <c r="BN28" s="338" t="s">
+      <c r="BN28" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="BO28" s="339"/>
-      <c r="BP28" s="339"/>
-      <c r="BQ28" s="339"/>
-      <c r="BR28" s="340"/>
+      <c r="BO28" s="312"/>
+      <c r="BP28" s="312"/>
+      <c r="BQ28" s="312"/>
+      <c r="BR28" s="313"/>
       <c r="BT28" s="205"/>
       <c r="BU28" s="206"/>
       <c r="BV28" s="206"/>
@@ -27070,13 +27130,13 @@
       <c r="BY28" s="206"/>
       <c r="BZ28" s="206"/>
       <c r="CA28" s="206"/>
-      <c r="CB28" s="338" t="s">
+      <c r="CB28" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="CC28" s="339"/>
-      <c r="CD28" s="339"/>
-      <c r="CE28" s="339"/>
-      <c r="CF28" s="340"/>
+      <c r="CC28" s="312"/>
+      <c r="CD28" s="312"/>
+      <c r="CE28" s="312"/>
+      <c r="CF28" s="313"/>
       <c r="CG28" s="176"/>
       <c r="CH28" s="190">
         <v>4</v>
@@ -27100,13 +27160,13 @@
         <v>27</v>
       </c>
       <c r="CO28" s="206"/>
-      <c r="CP28" s="338" t="s">
+      <c r="CP28" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="CQ28" s="339"/>
-      <c r="CR28" s="339"/>
-      <c r="CS28" s="339"/>
-      <c r="CT28" s="340"/>
+      <c r="CQ28" s="312"/>
+      <c r="CR28" s="312"/>
+      <c r="CS28" s="312"/>
+      <c r="CT28" s="313"/>
       <c r="CU28" s="175"/>
       <c r="CV28" s="205"/>
       <c r="CW28" s="206"/>
@@ -27116,13 +27176,13 @@
       <c r="DA28" s="206"/>
       <c r="DB28" s="206"/>
       <c r="DC28" s="206"/>
-      <c r="DD28" s="338" t="s">
+      <c r="DD28" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="DE28" s="339"/>
-      <c r="DF28" s="339"/>
-      <c r="DG28" s="339"/>
-      <c r="DH28" s="340"/>
+      <c r="DE28" s="312"/>
+      <c r="DF28" s="312"/>
+      <c r="DG28" s="312"/>
+      <c r="DH28" s="313"/>
       <c r="DJ28" s="190">
         <v>4</v>
       </c>
@@ -27145,13 +27205,13 @@
         <v>27</v>
       </c>
       <c r="DQ28" s="206"/>
-      <c r="DR28" s="338" t="s">
+      <c r="DR28" s="311" t="s">
         <v>87</v>
       </c>
-      <c r="DS28" s="339"/>
-      <c r="DT28" s="339"/>
-      <c r="DU28" s="339"/>
-      <c r="DV28" s="340"/>
+      <c r="DS28" s="312"/>
+      <c r="DT28" s="312"/>
+      <c r="DU28" s="312"/>
+      <c r="DV28" s="313"/>
     </row>
     <row r="29" spans="2:126" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="208" t="s">
@@ -29935,47 +29995,36 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="DR6:DV6"/>
-    <mergeCell ref="DR7:DV7"/>
-    <mergeCell ref="DR26:DV26"/>
-    <mergeCell ref="DR27:DV27"/>
-    <mergeCell ref="DR28:DV28"/>
-    <mergeCell ref="CP26:CT26"/>
-    <mergeCell ref="CP27:CT27"/>
-    <mergeCell ref="CP28:CT28"/>
-    <mergeCell ref="DD5:DH5"/>
-    <mergeCell ref="DD6:DH6"/>
-    <mergeCell ref="DD7:DH7"/>
-    <mergeCell ref="DD26:DH26"/>
-    <mergeCell ref="DD27:DH27"/>
-    <mergeCell ref="DD28:DH28"/>
-    <mergeCell ref="BN28:BR28"/>
-    <mergeCell ref="CB5:CF5"/>
-    <mergeCell ref="CB6:CF6"/>
-    <mergeCell ref="CB7:CF7"/>
-    <mergeCell ref="CB26:CF26"/>
-    <mergeCell ref="CB27:CF27"/>
-    <mergeCell ref="CB28:CF28"/>
-    <mergeCell ref="BN5:BR5"/>
-    <mergeCell ref="BN6:BR6"/>
-    <mergeCell ref="BN7:BR7"/>
-    <mergeCell ref="BN26:BR26"/>
-    <mergeCell ref="BN27:BR27"/>
-    <mergeCell ref="AZ26:BD26"/>
-    <mergeCell ref="AZ27:BD27"/>
-    <mergeCell ref="AZ28:BD28"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="X27:AB27"/>
-    <mergeCell ref="X28:AB28"/>
-    <mergeCell ref="AL26:AP26"/>
-    <mergeCell ref="AL27:AP27"/>
-    <mergeCell ref="AL28:AP28"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="BT2:CT2"/>
+    <mergeCell ref="BT3:CF3"/>
+    <mergeCell ref="CH3:CT3"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="CV2:DV2"/>
+    <mergeCell ref="CV3:DH3"/>
+    <mergeCell ref="DJ3:DV3"/>
+    <mergeCell ref="B24:N24"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="AZ4:BD4"/>
+    <mergeCell ref="AZ5:BD5"/>
+    <mergeCell ref="AZ6:BD6"/>
+    <mergeCell ref="AZ7:BD7"/>
+    <mergeCell ref="P2:AP2"/>
+    <mergeCell ref="AR2:BR2"/>
+    <mergeCell ref="P3:AB3"/>
+    <mergeCell ref="AD3:AP3"/>
+    <mergeCell ref="AR3:BD3"/>
+    <mergeCell ref="BF3:BR3"/>
+    <mergeCell ref="P24:AB24"/>
+    <mergeCell ref="AD24:AP24"/>
+    <mergeCell ref="AR24:BD24"/>
+    <mergeCell ref="BF24:BR24"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="X25:AB25"/>
+    <mergeCell ref="AL25:AP25"/>
+    <mergeCell ref="BN25:BR25"/>
+    <mergeCell ref="BN4:BR4"/>
+    <mergeCell ref="AZ25:BD25"/>
     <mergeCell ref="DD4:DH4"/>
     <mergeCell ref="DD25:DH25"/>
     <mergeCell ref="DR25:DV25"/>
@@ -29992,36 +30041,47 @@
     <mergeCell ref="CP4:CT4"/>
     <mergeCell ref="CH24:CT24"/>
     <mergeCell ref="BT24:CF24"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="X25:AB25"/>
-    <mergeCell ref="AL25:AP25"/>
-    <mergeCell ref="BN25:BR25"/>
-    <mergeCell ref="BN4:BR4"/>
-    <mergeCell ref="AZ25:BD25"/>
-    <mergeCell ref="B24:N24"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="AZ4:BD4"/>
-    <mergeCell ref="AZ5:BD5"/>
-    <mergeCell ref="AZ6:BD6"/>
-    <mergeCell ref="AZ7:BD7"/>
-    <mergeCell ref="P2:AP2"/>
-    <mergeCell ref="AR2:BR2"/>
-    <mergeCell ref="P3:AB3"/>
-    <mergeCell ref="AD3:AP3"/>
-    <mergeCell ref="AR3:BD3"/>
-    <mergeCell ref="BF3:BR3"/>
-    <mergeCell ref="P24:AB24"/>
-    <mergeCell ref="AD24:AP24"/>
-    <mergeCell ref="AR24:BD24"/>
-    <mergeCell ref="BF24:BR24"/>
-    <mergeCell ref="BT2:CT2"/>
-    <mergeCell ref="BT3:CF3"/>
-    <mergeCell ref="CH3:CT3"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="CV2:DV2"/>
-    <mergeCell ref="CV3:DH3"/>
-    <mergeCell ref="DJ3:DV3"/>
+    <mergeCell ref="AZ26:BD26"/>
+    <mergeCell ref="AZ27:BD27"/>
+    <mergeCell ref="AZ28:BD28"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="X28:AB28"/>
+    <mergeCell ref="AL26:AP26"/>
+    <mergeCell ref="AL27:AP27"/>
+    <mergeCell ref="AL28:AP28"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="BN28:BR28"/>
+    <mergeCell ref="CB5:CF5"/>
+    <mergeCell ref="CB6:CF6"/>
+    <mergeCell ref="CB7:CF7"/>
+    <mergeCell ref="CB26:CF26"/>
+    <mergeCell ref="CB27:CF27"/>
+    <mergeCell ref="CB28:CF28"/>
+    <mergeCell ref="BN5:BR5"/>
+    <mergeCell ref="BN6:BR6"/>
+    <mergeCell ref="BN7:BR7"/>
+    <mergeCell ref="BN26:BR26"/>
+    <mergeCell ref="BN27:BR27"/>
+    <mergeCell ref="CP26:CT26"/>
+    <mergeCell ref="CP27:CT27"/>
+    <mergeCell ref="CP28:CT28"/>
+    <mergeCell ref="DD5:DH5"/>
+    <mergeCell ref="DD6:DH6"/>
+    <mergeCell ref="DD7:DH7"/>
+    <mergeCell ref="DD26:DH26"/>
+    <mergeCell ref="DD27:DH27"/>
+    <mergeCell ref="DD28:DH28"/>
+    <mergeCell ref="DR6:DV6"/>
+    <mergeCell ref="DR7:DV7"/>
+    <mergeCell ref="DR26:DV26"/>
+    <mergeCell ref="DR27:DV27"/>
+    <mergeCell ref="DR28:DV28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30042,17 +30102,17 @@
   <sheetData>
     <row r="2" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="353" t="s">
+      <c r="B3" s="355" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
-      <c r="J3" s="355"/>
+      <c r="C3" s="356"/>
+      <c r="D3" s="356"/>
+      <c r="E3" s="356"/>
+      <c r="F3" s="356"/>
+      <c r="G3" s="356"/>
+      <c r="H3" s="356"/>
+      <c r="I3" s="356"/>
+      <c r="J3" s="357"/>
     </row>
     <row r="4" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="86" t="s">
@@ -30141,21 +30201,21 @@
         <v>25</v>
       </c>
       <c r="J6" s="92"/>
-      <c r="CC6" s="356" t="s">
+      <c r="CC6" s="358" t="s">
         <v>37</v>
       </c>
-      <c r="CD6" s="357"/>
-      <c r="CE6" s="357"/>
-      <c r="CF6" s="357"/>
-      <c r="CG6" s="357"/>
-      <c r="CH6" s="357"/>
-      <c r="CI6" s="357"/>
-      <c r="CJ6" s="357"/>
-      <c r="CK6" s="357"/>
-      <c r="CL6" s="357"/>
-      <c r="CM6" s="357"/>
-      <c r="CN6" s="357"/>
-      <c r="CO6" s="358"/>
+      <c r="CD6" s="359"/>
+      <c r="CE6" s="359"/>
+      <c r="CF6" s="359"/>
+      <c r="CG6" s="359"/>
+      <c r="CH6" s="359"/>
+      <c r="CI6" s="359"/>
+      <c r="CJ6" s="359"/>
+      <c r="CK6" s="359"/>
+      <c r="CL6" s="359"/>
+      <c r="CM6" s="359"/>
+      <c r="CN6" s="359"/>
+      <c r="CO6" s="360"/>
     </row>
     <row r="7" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="98">
@@ -30175,21 +30235,21 @@
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="100"/>
-      <c r="CC7" s="344" t="s">
+      <c r="CC7" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="CD7" s="345"/>
-      <c r="CE7" s="345"/>
-      <c r="CF7" s="345"/>
-      <c r="CG7" s="345"/>
-      <c r="CH7" s="345"/>
-      <c r="CI7" s="345"/>
-      <c r="CJ7" s="345"/>
-      <c r="CK7" s="345"/>
-      <c r="CL7" s="345"/>
-      <c r="CM7" s="345"/>
-      <c r="CN7" s="345"/>
-      <c r="CO7" s="346"/>
+      <c r="CD7" s="362"/>
+      <c r="CE7" s="362"/>
+      <c r="CF7" s="362"/>
+      <c r="CG7" s="362"/>
+      <c r="CH7" s="362"/>
+      <c r="CI7" s="362"/>
+      <c r="CJ7" s="362"/>
+      <c r="CK7" s="362"/>
+      <c r="CL7" s="362"/>
+      <c r="CM7" s="362"/>
+      <c r="CN7" s="362"/>
+      <c r="CO7" s="363"/>
     </row>
     <row r="8" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="101">
@@ -30211,21 +30271,21 @@
       <c r="H8" s="102"/>
       <c r="I8" s="102"/>
       <c r="J8" s="103"/>
-      <c r="CC8" s="347" t="s">
+      <c r="CC8" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="CD8" s="348"/>
-      <c r="CE8" s="348"/>
-      <c r="CF8" s="348"/>
-      <c r="CG8" s="348"/>
-      <c r="CH8" s="348"/>
-      <c r="CI8" s="348"/>
-      <c r="CJ8" s="348"/>
-      <c r="CK8" s="348"/>
-      <c r="CL8" s="348"/>
-      <c r="CM8" s="348"/>
-      <c r="CN8" s="348"/>
-      <c r="CO8" s="349"/>
+      <c r="CD8" s="365"/>
+      <c r="CE8" s="365"/>
+      <c r="CF8" s="365"/>
+      <c r="CG8" s="365"/>
+      <c r="CH8" s="365"/>
+      <c r="CI8" s="365"/>
+      <c r="CJ8" s="365"/>
+      <c r="CK8" s="365"/>
+      <c r="CL8" s="365"/>
+      <c r="CM8" s="365"/>
+      <c r="CN8" s="365"/>
+      <c r="CO8" s="366"/>
     </row>
     <row r="9" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="101">
@@ -30249,21 +30309,21 @@
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
       <c r="J9" s="103"/>
-      <c r="CC9" s="347" t="s">
+      <c r="CC9" s="364" t="s">
         <v>94</v>
       </c>
-      <c r="CD9" s="348"/>
-      <c r="CE9" s="348"/>
-      <c r="CF9" s="348"/>
-      <c r="CG9" s="348"/>
-      <c r="CH9" s="348"/>
-      <c r="CI9" s="348"/>
-      <c r="CJ9" s="348"/>
-      <c r="CK9" s="348"/>
-      <c r="CL9" s="348"/>
-      <c r="CM9" s="348"/>
-      <c r="CN9" s="348"/>
-      <c r="CO9" s="349"/>
+      <c r="CD9" s="365"/>
+      <c r="CE9" s="365"/>
+      <c r="CF9" s="365"/>
+      <c r="CG9" s="365"/>
+      <c r="CH9" s="365"/>
+      <c r="CI9" s="365"/>
+      <c r="CJ9" s="365"/>
+      <c r="CK9" s="365"/>
+      <c r="CL9" s="365"/>
+      <c r="CM9" s="365"/>
+      <c r="CN9" s="365"/>
+      <c r="CO9" s="366"/>
     </row>
     <row r="10" spans="2:93" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="76"/>
@@ -30291,21 +30351,21 @@
       <c r="J10" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="CC10" s="350" t="s">
+      <c r="CC10" s="367" t="s">
         <v>95</v>
       </c>
-      <c r="CD10" s="351"/>
-      <c r="CE10" s="351"/>
-      <c r="CF10" s="351"/>
-      <c r="CG10" s="351"/>
-      <c r="CH10" s="351"/>
-      <c r="CI10" s="351"/>
-      <c r="CJ10" s="351"/>
-      <c r="CK10" s="351"/>
-      <c r="CL10" s="351"/>
-      <c r="CM10" s="351"/>
-      <c r="CN10" s="351"/>
-      <c r="CO10" s="352"/>
+      <c r="CD10" s="368"/>
+      <c r="CE10" s="368"/>
+      <c r="CF10" s="368"/>
+      <c r="CG10" s="368"/>
+      <c r="CH10" s="368"/>
+      <c r="CI10" s="368"/>
+      <c r="CJ10" s="368"/>
+      <c r="CK10" s="368"/>
+      <c r="CL10" s="368"/>
+      <c r="CM10" s="368"/>
+      <c r="CN10" s="368"/>
+      <c r="CO10" s="369"/>
     </row>
     <row r="11" spans="2:93" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="53">
@@ -30640,17 +30700,17 @@
       <c r="CO19" s="263"/>
     </row>
     <row r="20" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="353" t="s">
+      <c r="B20" s="355" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="354"/>
-      <c r="D20" s="354"/>
-      <c r="E20" s="354"/>
-      <c r="F20" s="354"/>
-      <c r="G20" s="354"/>
-      <c r="H20" s="354"/>
-      <c r="I20" s="354"/>
-      <c r="J20" s="355"/>
+      <c r="C20" s="356"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="356"/>
+      <c r="F20" s="356"/>
+      <c r="G20" s="356"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="356"/>
+      <c r="J20" s="357"/>
       <c r="CC20" s="262">
         <v>7</v>
       </c>
@@ -30781,18 +30841,18 @@
         <v>25</v>
       </c>
       <c r="J23" s="97"/>
-      <c r="BS23" s="359" t="s">
+      <c r="BS23" s="352" t="s">
         <v>108</v>
       </c>
-      <c r="BT23" s="360"/>
-      <c r="BU23" s="360"/>
-      <c r="BV23" s="360"/>
-      <c r="BW23" s="360" t="s">
+      <c r="BT23" s="353"/>
+      <c r="BU23" s="353"/>
+      <c r="BV23" s="353"/>
+      <c r="BW23" s="353" t="s">
         <v>106</v>
       </c>
-      <c r="BX23" s="360"/>
-      <c r="BY23" s="360"/>
-      <c r="BZ23" s="361"/>
+      <c r="BX23" s="353"/>
+      <c r="BY23" s="353"/>
+      <c r="BZ23" s="354"/>
       <c r="CC23" s="264">
         <v>10</v>
       </c>
@@ -30831,18 +30891,18 @@
       <c r="BQ24" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="BS24" s="359" t="s">
+      <c r="BS24" s="352" t="s">
         <v>109</v>
       </c>
-      <c r="BT24" s="360"/>
-      <c r="BU24" s="360"/>
-      <c r="BV24" s="360"/>
-      <c r="BW24" s="360">
+      <c r="BT24" s="353"/>
+      <c r="BU24" s="353"/>
+      <c r="BV24" s="353"/>
+      <c r="BW24" s="353">
         <v>3</v>
       </c>
-      <c r="BX24" s="360"/>
-      <c r="BY24" s="360"/>
-      <c r="BZ24" s="361"/>
+      <c r="BX24" s="353"/>
+      <c r="BY24" s="353"/>
+      <c r="BZ24" s="354"/>
       <c r="CC24" s="264">
         <v>11</v>
       </c>
@@ -30882,16 +30942,16 @@
       <c r="BQ25" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="BS25" s="359" t="s">
+      <c r="BS25" s="352" t="s">
         <v>107</v>
       </c>
-      <c r="BT25" s="360"/>
-      <c r="BU25" s="360"/>
-      <c r="BV25" s="360"/>
-      <c r="BW25" s="360"/>
-      <c r="BX25" s="360"/>
-      <c r="BY25" s="360"/>
-      <c r="BZ25" s="361"/>
+      <c r="BT25" s="353"/>
+      <c r="BU25" s="353"/>
+      <c r="BV25" s="353"/>
+      <c r="BW25" s="353"/>
+      <c r="BX25" s="353"/>
+      <c r="BY25" s="353"/>
+      <c r="BZ25" s="354"/>
       <c r="CC25" s="265">
         <v>12</v>
       </c>
@@ -30979,21 +31039,21 @@
       <c r="BQ28" s="278" t="s">
         <v>103</v>
       </c>
-      <c r="DM28" s="341" t="s">
+      <c r="DM28" s="370" t="s">
         <v>110</v>
       </c>
-      <c r="DN28" s="342"/>
-      <c r="DO28" s="342"/>
-      <c r="DP28" s="342"/>
-      <c r="DQ28" s="342"/>
-      <c r="DR28" s="342"/>
-      <c r="DS28" s="342"/>
-      <c r="DT28" s="342"/>
-      <c r="DU28" s="342"/>
-      <c r="DV28" s="342"/>
-      <c r="DW28" s="342"/>
-      <c r="DX28" s="342"/>
-      <c r="DY28" s="343"/>
+      <c r="DN28" s="371"/>
+      <c r="DO28" s="371"/>
+      <c r="DP28" s="371"/>
+      <c r="DQ28" s="371"/>
+      <c r="DR28" s="371"/>
+      <c r="DS28" s="371"/>
+      <c r="DT28" s="371"/>
+      <c r="DU28" s="371"/>
+      <c r="DV28" s="371"/>
+      <c r="DW28" s="371"/>
+      <c r="DX28" s="371"/>
+      <c r="DY28" s="372"/>
     </row>
     <row r="29" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="53">
@@ -31010,21 +31070,21 @@
       <c r="BQ29" s="278" t="s">
         <v>104</v>
       </c>
-      <c r="DM29" s="344" t="s">
+      <c r="DM29" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="DN29" s="345"/>
-      <c r="DO29" s="345"/>
-      <c r="DP29" s="345"/>
-      <c r="DQ29" s="345"/>
-      <c r="DR29" s="345"/>
-      <c r="DS29" s="345"/>
-      <c r="DT29" s="345"/>
-      <c r="DU29" s="345"/>
-      <c r="DV29" s="345"/>
-      <c r="DW29" s="345"/>
-      <c r="DX29" s="345"/>
-      <c r="DY29" s="346"/>
+      <c r="DN29" s="362"/>
+      <c r="DO29" s="362"/>
+      <c r="DP29" s="362"/>
+      <c r="DQ29" s="362"/>
+      <c r="DR29" s="362"/>
+      <c r="DS29" s="362"/>
+      <c r="DT29" s="362"/>
+      <c r="DU29" s="362"/>
+      <c r="DV29" s="362"/>
+      <c r="DW29" s="362"/>
+      <c r="DX29" s="362"/>
+      <c r="DY29" s="363"/>
     </row>
     <row r="30" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="53">
@@ -31038,21 +31098,21 @@
       <c r="H30" s="57"/>
       <c r="I30" s="57"/>
       <c r="J30" s="96"/>
-      <c r="DM30" s="347" t="s">
+      <c r="DM30" s="364" t="s">
         <v>105</v>
       </c>
-      <c r="DN30" s="348"/>
-      <c r="DO30" s="348"/>
-      <c r="DP30" s="348"/>
-      <c r="DQ30" s="348"/>
-      <c r="DR30" s="348"/>
-      <c r="DS30" s="348"/>
-      <c r="DT30" s="348"/>
-      <c r="DU30" s="348"/>
-      <c r="DV30" s="348"/>
-      <c r="DW30" s="348"/>
-      <c r="DX30" s="348"/>
-      <c r="DY30" s="349"/>
+      <c r="DN30" s="365"/>
+      <c r="DO30" s="365"/>
+      <c r="DP30" s="365"/>
+      <c r="DQ30" s="365"/>
+      <c r="DR30" s="365"/>
+      <c r="DS30" s="365"/>
+      <c r="DT30" s="365"/>
+      <c r="DU30" s="365"/>
+      <c r="DV30" s="365"/>
+      <c r="DW30" s="365"/>
+      <c r="DX30" s="365"/>
+      <c r="DY30" s="366"/>
     </row>
     <row r="31" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53">
@@ -31066,21 +31126,21 @@
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
       <c r="J31" s="96"/>
-      <c r="DM31" s="347" t="s">
+      <c r="DM31" s="364" t="s">
         <v>94</v>
       </c>
-      <c r="DN31" s="348"/>
-      <c r="DO31" s="348"/>
-      <c r="DP31" s="348"/>
-      <c r="DQ31" s="348"/>
-      <c r="DR31" s="348"/>
-      <c r="DS31" s="348"/>
-      <c r="DT31" s="348"/>
-      <c r="DU31" s="348"/>
-      <c r="DV31" s="348"/>
-      <c r="DW31" s="348"/>
-      <c r="DX31" s="348"/>
-      <c r="DY31" s="349"/>
+      <c r="DN31" s="365"/>
+      <c r="DO31" s="365"/>
+      <c r="DP31" s="365"/>
+      <c r="DQ31" s="365"/>
+      <c r="DR31" s="365"/>
+      <c r="DS31" s="365"/>
+      <c r="DT31" s="365"/>
+      <c r="DU31" s="365"/>
+      <c r="DV31" s="365"/>
+      <c r="DW31" s="365"/>
+      <c r="DX31" s="365"/>
+      <c r="DY31" s="366"/>
     </row>
     <row r="32" spans="2:129" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="53">
@@ -31094,21 +31154,21 @@
       <c r="H32" s="57"/>
       <c r="I32" s="57"/>
       <c r="J32" s="96"/>
-      <c r="DM32" s="350" t="s">
+      <c r="DM32" s="367" t="s">
         <v>95</v>
       </c>
-      <c r="DN32" s="351"/>
-      <c r="DO32" s="351"/>
-      <c r="DP32" s="351"/>
-      <c r="DQ32" s="351"/>
-      <c r="DR32" s="351"/>
-      <c r="DS32" s="351"/>
-      <c r="DT32" s="351"/>
-      <c r="DU32" s="351"/>
-      <c r="DV32" s="351"/>
-      <c r="DW32" s="351"/>
-      <c r="DX32" s="351"/>
-      <c r="DY32" s="352"/>
+      <c r="DN32" s="368"/>
+      <c r="DO32" s="368"/>
+      <c r="DP32" s="368"/>
+      <c r="DQ32" s="368"/>
+      <c r="DR32" s="368"/>
+      <c r="DS32" s="368"/>
+      <c r="DT32" s="368"/>
+      <c r="DU32" s="368"/>
+      <c r="DV32" s="368"/>
+      <c r="DW32" s="368"/>
+      <c r="DX32" s="368"/>
+      <c r="DY32" s="369"/>
     </row>
     <row r="33" spans="2:129" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53">
@@ -31476,12 +31536,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="BS23:BV23"/>
-    <mergeCell ref="BS24:BV24"/>
-    <mergeCell ref="BS25:BV25"/>
-    <mergeCell ref="BW23:BZ23"/>
-    <mergeCell ref="BW24:BZ24"/>
-    <mergeCell ref="BW25:BZ25"/>
+    <mergeCell ref="DM28:DY28"/>
+    <mergeCell ref="DM29:DY29"/>
+    <mergeCell ref="DM30:DY30"/>
+    <mergeCell ref="DM31:DY31"/>
+    <mergeCell ref="DM32:DY32"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="CC6:CO6"/>
@@ -31489,11 +31548,12 @@
     <mergeCell ref="CC8:CO8"/>
     <mergeCell ref="CC9:CO9"/>
     <mergeCell ref="CC10:CO10"/>
-    <mergeCell ref="DM28:DY28"/>
-    <mergeCell ref="DM29:DY29"/>
-    <mergeCell ref="DM30:DY30"/>
-    <mergeCell ref="DM31:DY31"/>
-    <mergeCell ref="DM32:DY32"/>
+    <mergeCell ref="BS23:BV23"/>
+    <mergeCell ref="BS24:BV24"/>
+    <mergeCell ref="BS25:BV25"/>
+    <mergeCell ref="BW23:BZ23"/>
+    <mergeCell ref="BW24:BZ24"/>
+    <mergeCell ref="BW25:BZ25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -31506,60 +31566,60 @@
   <dimension ref="E1:CZ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AN8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DE24" sqref="DE24"/>
+      <selection activeCell="DV13" sqref="DV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="5:32" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="5:32" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="371" t="s">
+      <c r="E2" s="424" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="372"/>
-      <c r="M2" s="372"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="373"/>
-      <c r="T2" s="368" t="s">
+      <c r="F2" s="425"/>
+      <c r="G2" s="425"/>
+      <c r="H2" s="425"/>
+      <c r="I2" s="425"/>
+      <c r="J2" s="425"/>
+      <c r="K2" s="425"/>
+      <c r="L2" s="425"/>
+      <c r="M2" s="425"/>
+      <c r="N2" s="425"/>
+      <c r="O2" s="425"/>
+      <c r="P2" s="425"/>
+      <c r="Q2" s="426"/>
+      <c r="T2" s="409" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="369"/>
-      <c r="V2" s="369"/>
-      <c r="W2" s="369"/>
-      <c r="X2" s="369"/>
-      <c r="Y2" s="369"/>
-      <c r="Z2" s="369"/>
-      <c r="AA2" s="369"/>
-      <c r="AB2" s="369"/>
-      <c r="AC2" s="369"/>
-      <c r="AD2" s="369"/>
-      <c r="AE2" s="369"/>
-      <c r="AF2" s="370"/>
+      <c r="U2" s="410"/>
+      <c r="V2" s="410"/>
+      <c r="W2" s="410"/>
+      <c r="X2" s="410"/>
+      <c r="Y2" s="410"/>
+      <c r="Z2" s="410"/>
+      <c r="AA2" s="410"/>
+      <c r="AB2" s="410"/>
+      <c r="AC2" s="410"/>
+      <c r="AD2" s="410"/>
+      <c r="AE2" s="410"/>
+      <c r="AF2" s="411"/>
     </row>
     <row r="3" spans="5:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="344" t="s">
+      <c r="E3" s="361" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="346"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="362"/>
+      <c r="K3" s="362"/>
+      <c r="L3" s="362"/>
+      <c r="M3" s="362"/>
+      <c r="N3" s="362"/>
+      <c r="O3" s="362"/>
+      <c r="P3" s="362"/>
+      <c r="Q3" s="363"/>
       <c r="T3" s="255">
         <v>1</v>
       </c>
@@ -31583,21 +31643,21 @@
       <c r="AF3" s="258"/>
     </row>
     <row r="4" spans="5:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="347" t="s">
+      <c r="E4" s="364" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="348"/>
-      <c r="G4" s="348"/>
-      <c r="H4" s="348"/>
-      <c r="I4" s="348"/>
-      <c r="J4" s="348"/>
-      <c r="K4" s="348"/>
-      <c r="L4" s="348"/>
-      <c r="M4" s="348"/>
-      <c r="N4" s="348"/>
-      <c r="O4" s="348"/>
-      <c r="P4" s="348"/>
-      <c r="Q4" s="349"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
+      <c r="I4" s="365"/>
+      <c r="J4" s="365"/>
+      <c r="K4" s="365"/>
+      <c r="L4" s="365"/>
+      <c r="M4" s="365"/>
+      <c r="N4" s="365"/>
+      <c r="O4" s="365"/>
+      <c r="P4" s="365"/>
+      <c r="Q4" s="366"/>
       <c r="T4" s="253">
         <v>2</v>
       </c>
@@ -31623,21 +31683,21 @@
       <c r="AF4" s="254"/>
     </row>
     <row r="5" spans="5:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="347" t="s">
+      <c r="E5" s="364" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="348"/>
-      <c r="G5" s="348"/>
-      <c r="H5" s="348"/>
-      <c r="I5" s="348"/>
-      <c r="J5" s="348"/>
-      <c r="K5" s="348"/>
-      <c r="L5" s="348"/>
-      <c r="M5" s="348"/>
-      <c r="N5" s="348"/>
-      <c r="O5" s="348"/>
-      <c r="P5" s="348"/>
-      <c r="Q5" s="349"/>
+      <c r="F5" s="365"/>
+      <c r="G5" s="365"/>
+      <c r="H5" s="365"/>
+      <c r="I5" s="365"/>
+      <c r="J5" s="365"/>
+      <c r="K5" s="365"/>
+      <c r="L5" s="365"/>
+      <c r="M5" s="365"/>
+      <c r="N5" s="365"/>
+      <c r="O5" s="365"/>
+      <c r="P5" s="365"/>
+      <c r="Q5" s="366"/>
       <c r="T5" s="253">
         <v>3</v>
       </c>
@@ -31665,21 +31725,21 @@
       <c r="AF5" s="254"/>
     </row>
     <row r="6" spans="5:32" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="347" t="s">
+      <c r="E6" s="364" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="348"/>
-      <c r="G6" s="348"/>
-      <c r="H6" s="348"/>
-      <c r="I6" s="348"/>
-      <c r="J6" s="348"/>
-      <c r="K6" s="348"/>
-      <c r="L6" s="348"/>
-      <c r="M6" s="348"/>
-      <c r="N6" s="348"/>
-      <c r="O6" s="348"/>
-      <c r="P6" s="348"/>
-      <c r="Q6" s="349"/>
+      <c r="F6" s="365"/>
+      <c r="G6" s="365"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365"/>
+      <c r="K6" s="365"/>
+      <c r="L6" s="365"/>
+      <c r="M6" s="365"/>
+      <c r="N6" s="365"/>
+      <c r="O6" s="365"/>
+      <c r="P6" s="365"/>
+      <c r="Q6" s="366"/>
       <c r="T6" s="259">
         <v>4</v>
       </c>
@@ -32345,66 +32405,66 @@
     </row>
     <row r="23" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AH24" s="374" t="s">
+      <c r="AH24" s="382" t="s">
         <v>90</v>
       </c>
-      <c r="AI24" s="375"/>
-      <c r="AJ24" s="375"/>
-      <c r="AK24" s="375"/>
-      <c r="AL24" s="375"/>
-      <c r="AM24" s="375"/>
-      <c r="AN24" s="375"/>
-      <c r="AO24" s="375"/>
-      <c r="AP24" s="375"/>
-      <c r="AQ24" s="375"/>
-      <c r="AR24" s="375"/>
-      <c r="AS24" s="375"/>
-      <c r="AT24" s="376"/>
-      <c r="AW24" s="368" t="s">
+      <c r="AI24" s="383"/>
+      <c r="AJ24" s="383"/>
+      <c r="AK24" s="383"/>
+      <c r="AL24" s="383"/>
+      <c r="AM24" s="383"/>
+      <c r="AN24" s="383"/>
+      <c r="AO24" s="383"/>
+      <c r="AP24" s="383"/>
+      <c r="AQ24" s="383"/>
+      <c r="AR24" s="383"/>
+      <c r="AS24" s="383"/>
+      <c r="AT24" s="384"/>
+      <c r="AW24" s="409" t="s">
         <v>91</v>
       </c>
-      <c r="AX24" s="369"/>
-      <c r="AY24" s="369"/>
-      <c r="AZ24" s="369"/>
-      <c r="BA24" s="369"/>
-      <c r="BB24" s="369"/>
-      <c r="BC24" s="369"/>
-      <c r="BD24" s="369"/>
-      <c r="BE24" s="369"/>
-      <c r="BF24" s="369"/>
-      <c r="BG24" s="369"/>
-      <c r="BH24" s="369"/>
-      <c r="BI24" s="370"/>
-      <c r="BM24" s="362" t="s">
+      <c r="AX24" s="410"/>
+      <c r="AY24" s="410"/>
+      <c r="AZ24" s="410"/>
+      <c r="BA24" s="410"/>
+      <c r="BB24" s="410"/>
+      <c r="BC24" s="410"/>
+      <c r="BD24" s="410"/>
+      <c r="BE24" s="410"/>
+      <c r="BF24" s="410"/>
+      <c r="BG24" s="410"/>
+      <c r="BH24" s="410"/>
+      <c r="BI24" s="411"/>
+      <c r="BM24" s="427" t="s">
         <v>91</v>
       </c>
-      <c r="BN24" s="363"/>
-      <c r="BO24" s="363"/>
-      <c r="BP24" s="363"/>
-      <c r="BQ24" s="363"/>
-      <c r="BR24" s="363"/>
-      <c r="BS24" s="363"/>
-      <c r="BT24" s="363"/>
-      <c r="BU24" s="363"/>
-      <c r="BV24" s="363"/>
-      <c r="BW24" s="363"/>
-      <c r="BX24" s="363"/>
-      <c r="BY24" s="364"/>
-      <c r="CN24" s="374" t="s">
+      <c r="BN24" s="428"/>
+      <c r="BO24" s="428"/>
+      <c r="BP24" s="428"/>
+      <c r="BQ24" s="428"/>
+      <c r="BR24" s="428"/>
+      <c r="BS24" s="428"/>
+      <c r="BT24" s="428"/>
+      <c r="BU24" s="428"/>
+      <c r="BV24" s="428"/>
+      <c r="BW24" s="428"/>
+      <c r="BX24" s="428"/>
+      <c r="BY24" s="429"/>
+      <c r="CN24" s="382" t="s">
         <v>90</v>
       </c>
-      <c r="CO24" s="375"/>
-      <c r="CP24" s="375"/>
-      <c r="CQ24" s="375"/>
-      <c r="CR24" s="375"/>
-      <c r="CS24" s="375"/>
-      <c r="CT24" s="375"/>
-      <c r="CU24" s="375"/>
-      <c r="CV24" s="375"/>
-      <c r="CW24" s="375"/>
-      <c r="CX24" s="375"/>
-      <c r="CY24" s="375"/>
-      <c r="CZ24" s="376"/>
+      <c r="CO24" s="383"/>
+      <c r="CP24" s="383"/>
+      <c r="CQ24" s="383"/>
+      <c r="CR24" s="383"/>
+      <c r="CS24" s="383"/>
+      <c r="CT24" s="383"/>
+      <c r="CU24" s="383"/>
+      <c r="CV24" s="383"/>
+      <c r="CW24" s="383"/>
+      <c r="CX24" s="383"/>
+      <c r="CY24" s="383"/>
+      <c r="CZ24" s="384"/>
     </row>
     <row r="25" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AH25" s="255">
@@ -32449,21 +32509,21 @@
       <c r="BG25" s="257"/>
       <c r="BH25" s="257"/>
       <c r="BI25" s="258"/>
-      <c r="BM25" s="347" t="s">
+      <c r="BM25" s="364" t="s">
         <v>116</v>
       </c>
-      <c r="BN25" s="348"/>
-      <c r="BO25" s="348"/>
-      <c r="BP25" s="348"/>
-      <c r="BQ25" s="348"/>
-      <c r="BR25" s="348"/>
-      <c r="BS25" s="348"/>
-      <c r="BT25" s="348"/>
-      <c r="BU25" s="348"/>
-      <c r="BV25" s="348"/>
-      <c r="BW25" s="348"/>
-      <c r="BX25" s="348"/>
-      <c r="BY25" s="349"/>
+      <c r="BN25" s="365"/>
+      <c r="BO25" s="365"/>
+      <c r="BP25" s="365"/>
+      <c r="BQ25" s="365"/>
+      <c r="BR25" s="365"/>
+      <c r="BS25" s="365"/>
+      <c r="BT25" s="365"/>
+      <c r="BU25" s="365"/>
+      <c r="BV25" s="365"/>
+      <c r="BW25" s="365"/>
+      <c r="BX25" s="365"/>
+      <c r="BY25" s="366"/>
       <c r="CN25" s="255">
         <v>1</v>
       </c>
@@ -32487,13 +32547,13 @@
       <c r="CZ25" s="258"/>
     </row>
     <row r="26" spans="5:104" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U26" s="377" t="s">
+      <c r="U26" s="412" t="s">
         <v>90</v>
       </c>
-      <c r="V26" s="378"/>
-      <c r="W26" s="378"/>
-      <c r="X26" s="378"/>
-      <c r="Y26" s="379"/>
+      <c r="V26" s="413"/>
+      <c r="W26" s="413"/>
+      <c r="X26" s="413"/>
+      <c r="Y26" s="414"/>
       <c r="AH26" s="253">
         <v>2</v>
       </c>
@@ -32540,21 +32600,21 @@
       <c r="BG26" s="192"/>
       <c r="BH26" s="192"/>
       <c r="BI26" s="254"/>
-      <c r="BM26" s="347" t="s">
+      <c r="BM26" s="364" t="s">
         <v>117</v>
       </c>
-      <c r="BN26" s="348"/>
-      <c r="BO26" s="348"/>
-      <c r="BP26" s="348"/>
-      <c r="BQ26" s="348"/>
-      <c r="BR26" s="348"/>
-      <c r="BS26" s="348"/>
-      <c r="BT26" s="348"/>
-      <c r="BU26" s="348"/>
-      <c r="BV26" s="348"/>
-      <c r="BW26" s="348"/>
-      <c r="BX26" s="348"/>
-      <c r="BY26" s="349"/>
+      <c r="BN26" s="365"/>
+      <c r="BO26" s="365"/>
+      <c r="BP26" s="365"/>
+      <c r="BQ26" s="365"/>
+      <c r="BR26" s="365"/>
+      <c r="BS26" s="365"/>
+      <c r="BT26" s="365"/>
+      <c r="BU26" s="365"/>
+      <c r="BV26" s="365"/>
+      <c r="BW26" s="365"/>
+      <c r="BX26" s="365"/>
+      <c r="BY26" s="366"/>
       <c r="CN26" s="253">
         <v>2</v>
       </c>
@@ -32580,13 +32640,13 @@
       <c r="CZ26" s="254"/>
     </row>
     <row r="27" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U27" s="380" t="s">
+      <c r="U27" s="415" t="s">
         <v>96</v>
       </c>
-      <c r="V27" s="381"/>
-      <c r="W27" s="381"/>
-      <c r="X27" s="381"/>
-      <c r="Y27" s="382"/>
+      <c r="V27" s="416"/>
+      <c r="W27" s="416"/>
+      <c r="X27" s="416"/>
+      <c r="Y27" s="417"/>
       <c r="AH27" s="253">
         <v>3</v>
       </c>
@@ -32637,21 +32697,21 @@
       <c r="BG27" s="192"/>
       <c r="BH27" s="192"/>
       <c r="BI27" s="254"/>
-      <c r="BM27" s="347" t="s">
+      <c r="BM27" s="364" t="s">
         <v>118</v>
       </c>
-      <c r="BN27" s="348"/>
-      <c r="BO27" s="348"/>
-      <c r="BP27" s="348"/>
-      <c r="BQ27" s="348"/>
-      <c r="BR27" s="348"/>
-      <c r="BS27" s="348"/>
-      <c r="BT27" s="348"/>
-      <c r="BU27" s="348"/>
-      <c r="BV27" s="348"/>
-      <c r="BW27" s="348"/>
-      <c r="BX27" s="348"/>
-      <c r="BY27" s="349"/>
+      <c r="BN27" s="365"/>
+      <c r="BO27" s="365"/>
+      <c r="BP27" s="365"/>
+      <c r="BQ27" s="365"/>
+      <c r="BR27" s="365"/>
+      <c r="BS27" s="365"/>
+      <c r="BT27" s="365"/>
+      <c r="BU27" s="365"/>
+      <c r="BV27" s="365"/>
+      <c r="BW27" s="365"/>
+      <c r="BX27" s="365"/>
+      <c r="BY27" s="366"/>
       <c r="CN27" s="253">
         <v>3</v>
       </c>
@@ -32679,13 +32739,13 @@
       <c r="CZ27" s="254"/>
     </row>
     <row r="28" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U28" s="383" t="s">
+      <c r="U28" s="418" t="s">
         <v>91</v>
       </c>
-      <c r="V28" s="384"/>
-      <c r="W28" s="384"/>
-      <c r="X28" s="384"/>
-      <c r="Y28" s="385"/>
+      <c r="V28" s="419"/>
+      <c r="W28" s="419"/>
+      <c r="X28" s="419"/>
+      <c r="Y28" s="420"/>
       <c r="AH28" s="259">
         <v>4</v>
       </c>
@@ -32740,31 +32800,31 @@
       <c r="BG28" s="200"/>
       <c r="BH28" s="200"/>
       <c r="BI28" s="261"/>
-      <c r="BM28" s="347" t="s">
+      <c r="BM28" s="364" t="s">
         <v>119</v>
       </c>
-      <c r="BN28" s="348"/>
-      <c r="BO28" s="348"/>
-      <c r="BP28" s="348"/>
-      <c r="BQ28" s="348"/>
-      <c r="BR28" s="348"/>
-      <c r="BS28" s="348"/>
-      <c r="BT28" s="348"/>
-      <c r="BU28" s="348"/>
-      <c r="BV28" s="348"/>
-      <c r="BW28" s="348"/>
-      <c r="BX28" s="348"/>
-      <c r="BY28" s="349"/>
-      <c r="CN28" s="456" t="s">
+      <c r="BN28" s="365"/>
+      <c r="BO28" s="365"/>
+      <c r="BP28" s="365"/>
+      <c r="BQ28" s="365"/>
+      <c r="BR28" s="365"/>
+      <c r="BS28" s="365"/>
+      <c r="BT28" s="365"/>
+      <c r="BU28" s="365"/>
+      <c r="BV28" s="365"/>
+      <c r="BW28" s="365"/>
+      <c r="BX28" s="365"/>
+      <c r="BY28" s="366"/>
+      <c r="CN28" s="282" t="s">
         <v>0</v>
       </c>
       <c r="CO28" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="CP28" s="458" t="s">
+      <c r="CP28" s="284" t="s">
         <v>2</v>
       </c>
-      <c r="CQ28" s="458" t="s">
+      <c r="CQ28" s="284" t="s">
         <v>3</v>
       </c>
       <c r="CR28" s="210" t="s">
@@ -32779,7 +32839,7 @@
       <c r="CU28" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="CV28" s="460" t="s">
+      <c r="CV28" s="286" t="s">
         <v>8</v>
       </c>
       <c r="CW28" s="210" t="s">
@@ -32796,13 +32856,13 @@
       </c>
     </row>
     <row r="29" spans="5:104" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U29" s="365" t="s">
+      <c r="U29" s="421" t="s">
         <v>97</v>
       </c>
-      <c r="V29" s="366"/>
-      <c r="W29" s="366"/>
-      <c r="X29" s="366"/>
-      <c r="Y29" s="367"/>
+      <c r="V29" s="422"/>
+      <c r="W29" s="422"/>
+      <c r="X29" s="422"/>
+      <c r="Y29" s="423"/>
       <c r="AH29" s="251" t="s">
         <v>0</v>
       </c>
@@ -32893,7 +32953,7 @@
       <c r="BP29" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="BQ29" s="464" t="s">
+      <c r="BQ29" s="287" t="s">
         <v>4</v>
       </c>
       <c r="BR29" s="272" t="s">
@@ -32923,7 +32983,7 @@
       <c r="CN29" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="CO29" s="457" t="s">
+      <c r="CO29" s="283" t="s">
         <v>14</v>
       </c>
       <c r="CP29" s="213" t="s">
@@ -32932,7 +32992,7 @@
       <c r="CQ29" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="CR29" s="457" t="s">
+      <c r="CR29" s="283" t="s">
         <v>17</v>
       </c>
       <c r="CS29" s="213" t="s">
@@ -33069,7 +33129,7 @@
       <c r="BV30" s="275" t="s">
         <v>22</v>
       </c>
-      <c r="BW30" s="466" t="s">
+      <c r="BW30" s="289" t="s">
         <v>23</v>
       </c>
       <c r="BX30" s="275" t="s">
@@ -33431,7 +33491,7 @@
       <c r="CP34" s="162"/>
       <c r="CQ34" s="162"/>
       <c r="CR34" s="162"/>
-      <c r="CS34" s="459" t="s">
+      <c r="CS34" s="285" t="s">
         <v>17</v>
       </c>
       <c r="CT34" s="162"/>
@@ -33483,7 +33543,7 @@
       <c r="BP35" s="162"/>
       <c r="BQ35" s="162"/>
       <c r="BR35" s="162"/>
-      <c r="BS35" s="465" t="s">
+      <c r="BS35" s="288" t="s">
         <v>4</v>
       </c>
       <c r="BT35" s="162"/>
@@ -33492,27 +33552,27 @@
       <c r="BW35" s="195"/>
       <c r="BX35" s="195"/>
       <c r="BY35" s="263"/>
-      <c r="CA35" s="447" t="s">
+      <c r="CA35" s="385" t="s">
         <v>91</v>
       </c>
-      <c r="CB35" s="448"/>
-      <c r="CC35" s="448"/>
-      <c r="CD35" s="448"/>
-      <c r="CE35" s="449"/>
-      <c r="CH35" s="453" t="s">
+      <c r="CB35" s="386"/>
+      <c r="CC35" s="386"/>
+      <c r="CD35" s="386"/>
+      <c r="CE35" s="387"/>
+      <c r="CH35" s="391" t="s">
         <v>90</v>
       </c>
-      <c r="CI35" s="454"/>
-      <c r="CJ35" s="454"/>
-      <c r="CK35" s="454"/>
-      <c r="CL35" s="455"/>
+      <c r="CI35" s="392"/>
+      <c r="CJ35" s="392"/>
+      <c r="CK35" s="392"/>
+      <c r="CL35" s="393"/>
       <c r="CN35" s="223">
         <v>5</v>
       </c>
       <c r="CO35" s="162"/>
       <c r="CP35" s="228"/>
       <c r="CQ35" s="162"/>
-      <c r="CR35" s="459" t="s">
+      <c r="CR35" s="285" t="s">
         <v>14</v>
       </c>
       <c r="CS35" s="160"/>
@@ -33574,20 +33634,20 @@
       <c r="BW36" s="195"/>
       <c r="BX36" s="195"/>
       <c r="BY36" s="263"/>
-      <c r="CA36" s="444" t="s">
+      <c r="CA36" s="388" t="s">
         <v>115</v>
       </c>
-      <c r="CB36" s="445"/>
-      <c r="CC36" s="445"/>
-      <c r="CD36" s="445"/>
-      <c r="CE36" s="446"/>
-      <c r="CH36" s="450" t="s">
+      <c r="CB36" s="389"/>
+      <c r="CC36" s="389"/>
+      <c r="CD36" s="389"/>
+      <c r="CE36" s="390"/>
+      <c r="CH36" s="394" t="s">
         <v>120</v>
       </c>
-      <c r="CI36" s="451"/>
-      <c r="CJ36" s="451"/>
-      <c r="CK36" s="451"/>
-      <c r="CL36" s="452"/>
+      <c r="CI36" s="395"/>
+      <c r="CJ36" s="395"/>
+      <c r="CK36" s="395"/>
+      <c r="CL36" s="396"/>
       <c r="CN36" s="223">
         <v>6</v>
       </c>
@@ -33660,20 +33720,20 @@
       <c r="BW37" s="195"/>
       <c r="BX37" s="195"/>
       <c r="BY37" s="263"/>
-      <c r="CA37" s="439" t="s">
+      <c r="CA37" s="400" t="s">
         <v>111</v>
       </c>
-      <c r="CB37" s="438"/>
-      <c r="CC37" s="438"/>
-      <c r="CD37" s="438"/>
-      <c r="CE37" s="440"/>
-      <c r="CH37" s="442" t="s">
+      <c r="CB37" s="401"/>
+      <c r="CC37" s="401"/>
+      <c r="CD37" s="401"/>
+      <c r="CE37" s="402"/>
+      <c r="CH37" s="397" t="s">
         <v>111</v>
       </c>
-      <c r="CI37" s="441"/>
-      <c r="CJ37" s="441"/>
-      <c r="CK37" s="441"/>
-      <c r="CL37" s="443"/>
+      <c r="CI37" s="398"/>
+      <c r="CJ37" s="398"/>
+      <c r="CK37" s="398"/>
+      <c r="CL37" s="399"/>
       <c r="CN37" s="223">
         <v>7</v>
       </c>
@@ -33738,18 +33798,18 @@
       <c r="BW38" s="195"/>
       <c r="BX38" s="195"/>
       <c r="BY38" s="263"/>
-      <c r="CA38" s="428" t="s">
+      <c r="CA38" s="403" t="s">
         <v>112</v>
       </c>
-      <c r="CB38" s="429"/>
-      <c r="CC38" s="429"/>
-      <c r="CD38" s="429"/>
-      <c r="CE38" s="430"/>
-      <c r="CH38" s="461"/>
-      <c r="CI38" s="462"/>
-      <c r="CJ38" s="462"/>
-      <c r="CK38" s="462"/>
-      <c r="CL38" s="463"/>
+      <c r="CB38" s="404"/>
+      <c r="CC38" s="404"/>
+      <c r="CD38" s="404"/>
+      <c r="CE38" s="405"/>
+      <c r="CH38" s="376"/>
+      <c r="CI38" s="377"/>
+      <c r="CJ38" s="377"/>
+      <c r="CK38" s="377"/>
+      <c r="CL38" s="378"/>
       <c r="CN38" s="223">
         <v>8</v>
       </c>
@@ -33812,18 +33872,18 @@
       <c r="BW39" s="195"/>
       <c r="BX39" s="195"/>
       <c r="BY39" s="263"/>
-      <c r="CA39" s="428" t="s">
+      <c r="CA39" s="403" t="s">
         <v>113</v>
       </c>
-      <c r="CB39" s="429"/>
-      <c r="CC39" s="429"/>
-      <c r="CD39" s="429"/>
-      <c r="CE39" s="430"/>
-      <c r="CH39" s="461"/>
-      <c r="CI39" s="462"/>
-      <c r="CJ39" s="462"/>
-      <c r="CK39" s="462"/>
-      <c r="CL39" s="463"/>
+      <c r="CB39" s="404"/>
+      <c r="CC39" s="404"/>
+      <c r="CD39" s="404"/>
+      <c r="CE39" s="405"/>
+      <c r="CH39" s="376"/>
+      <c r="CI39" s="377"/>
+      <c r="CJ39" s="377"/>
+      <c r="CK39" s="377"/>
+      <c r="CL39" s="378"/>
       <c r="CN39" s="223">
         <v>9</v>
       </c>
@@ -33886,18 +33946,18 @@
       <c r="BW40" s="195"/>
       <c r="BX40" s="195"/>
       <c r="BY40" s="263"/>
-      <c r="CA40" s="431" t="s">
+      <c r="CA40" s="406" t="s">
         <v>114</v>
       </c>
-      <c r="CB40" s="432"/>
-      <c r="CC40" s="432"/>
-      <c r="CD40" s="432"/>
-      <c r="CE40" s="433"/>
-      <c r="CH40" s="461"/>
-      <c r="CI40" s="462"/>
-      <c r="CJ40" s="462"/>
-      <c r="CK40" s="462"/>
-      <c r="CL40" s="463"/>
+      <c r="CB40" s="407"/>
+      <c r="CC40" s="407"/>
+      <c r="CD40" s="407"/>
+      <c r="CE40" s="408"/>
+      <c r="CH40" s="376"/>
+      <c r="CI40" s="377"/>
+      <c r="CJ40" s="377"/>
+      <c r="CK40" s="377"/>
+      <c r="CL40" s="378"/>
       <c r="CN40" s="223">
         <v>10</v>
       </c>
@@ -33960,16 +34020,16 @@
       <c r="BW41" s="195"/>
       <c r="BX41" s="195"/>
       <c r="BY41" s="263"/>
-      <c r="CA41" s="422"/>
-      <c r="CB41" s="423"/>
-      <c r="CC41" s="423"/>
-      <c r="CD41" s="423"/>
-      <c r="CE41" s="424"/>
-      <c r="CH41" s="422"/>
-      <c r="CI41" s="423"/>
-      <c r="CJ41" s="423"/>
-      <c r="CK41" s="423"/>
-      <c r="CL41" s="424"/>
+      <c r="CA41" s="379"/>
+      <c r="CB41" s="380"/>
+      <c r="CC41" s="380"/>
+      <c r="CD41" s="380"/>
+      <c r="CE41" s="381"/>
+      <c r="CH41" s="379"/>
+      <c r="CI41" s="380"/>
+      <c r="CJ41" s="380"/>
+      <c r="CK41" s="380"/>
+      <c r="CL41" s="381"/>
       <c r="CN41" s="223">
         <v>11</v>
       </c>
@@ -34032,18 +34092,16 @@
       <c r="BW42" s="195"/>
       <c r="BX42" s="195"/>
       <c r="BY42" s="263"/>
-      <c r="CA42" s="422"/>
-      <c r="CB42" s="423"/>
-      <c r="CC42" s="423"/>
-      <c r="CD42" s="423"/>
-      <c r="CE42" s="424"/>
-      <c r="CF42" s="437"/>
-      <c r="CG42" s="437"/>
-      <c r="CH42" s="422"/>
-      <c r="CI42" s="423"/>
-      <c r="CJ42" s="423"/>
-      <c r="CK42" s="423"/>
-      <c r="CL42" s="424"/>
+      <c r="CA42" s="379"/>
+      <c r="CB42" s="380"/>
+      <c r="CC42" s="380"/>
+      <c r="CD42" s="380"/>
+      <c r="CE42" s="381"/>
+      <c r="CH42" s="379"/>
+      <c r="CI42" s="380"/>
+      <c r="CJ42" s="380"/>
+      <c r="CK42" s="380"/>
+      <c r="CL42" s="381"/>
       <c r="CN42" s="230">
         <v>12</v>
       </c>
@@ -34106,39 +34164,49 @@
       <c r="BW43" s="266"/>
       <c r="BX43" s="266"/>
       <c r="BY43" s="267"/>
-      <c r="CA43" s="425"/>
-      <c r="CB43" s="426"/>
-      <c r="CC43" s="426"/>
-      <c r="CD43" s="426"/>
-      <c r="CE43" s="427"/>
-      <c r="CF43" s="437"/>
-      <c r="CG43" s="437"/>
-      <c r="CH43" s="425"/>
-      <c r="CI43" s="426"/>
-      <c r="CJ43" s="426"/>
-      <c r="CK43" s="426"/>
-      <c r="CL43" s="427"/>
-      <c r="CN43" s="434"/>
-      <c r="CO43" s="435"/>
-      <c r="CP43" s="435"/>
-      <c r="CQ43" s="435"/>
-      <c r="CR43" s="435"/>
-      <c r="CS43" s="435"/>
-      <c r="CT43" s="435"/>
-      <c r="CU43" s="435"/>
-      <c r="CV43" s="435"/>
-      <c r="CW43" s="435"/>
-      <c r="CX43" s="435"/>
-      <c r="CY43" s="435"/>
-      <c r="CZ43" s="436"/>
+      <c r="CA43" s="373"/>
+      <c r="CB43" s="374"/>
+      <c r="CC43" s="374"/>
+      <c r="CD43" s="374"/>
+      <c r="CE43" s="375"/>
+      <c r="CH43" s="373"/>
+      <c r="CI43" s="374"/>
+      <c r="CJ43" s="374"/>
+      <c r="CK43" s="374"/>
+      <c r="CL43" s="375"/>
+      <c r="CN43" s="279"/>
+      <c r="CO43" s="280"/>
+      <c r="CP43" s="280"/>
+      <c r="CQ43" s="280"/>
+      <c r="CR43" s="280"/>
+      <c r="CS43" s="280"/>
+      <c r="CT43" s="280"/>
+      <c r="CU43" s="280"/>
+      <c r="CV43" s="280"/>
+      <c r="CW43" s="280"/>
+      <c r="CX43" s="280"/>
+      <c r="CY43" s="280"/>
+      <c r="CZ43" s="281"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="CH43:CL43"/>
-    <mergeCell ref="CH39:CL39"/>
-    <mergeCell ref="CH40:CL40"/>
-    <mergeCell ref="CH41:CL41"/>
-    <mergeCell ref="CH42:CL42"/>
+    <mergeCell ref="BM24:BY24"/>
+    <mergeCell ref="BM25:BY25"/>
+    <mergeCell ref="BM26:BY26"/>
+    <mergeCell ref="BM27:BY27"/>
+    <mergeCell ref="BM28:BY28"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E4:Q4"/>
+    <mergeCell ref="E5:Q5"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="AH24:AT24"/>
+    <mergeCell ref="AW24:BI24"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="U28:Y28"/>
     <mergeCell ref="CN24:CZ24"/>
     <mergeCell ref="CA42:CE42"/>
     <mergeCell ref="CA43:CE43"/>
@@ -34153,23 +34221,11 @@
     <mergeCell ref="CA39:CE39"/>
     <mergeCell ref="CA40:CE40"/>
     <mergeCell ref="CA41:CE41"/>
-    <mergeCell ref="AH24:AT24"/>
-    <mergeCell ref="AW24:BI24"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="T2:AF2"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="E5:Q5"/>
-    <mergeCell ref="E6:Q6"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="BM24:BY24"/>
-    <mergeCell ref="BM25:BY25"/>
-    <mergeCell ref="BM26:BY26"/>
-    <mergeCell ref="BM27:BY27"/>
-    <mergeCell ref="BM28:BY28"/>
+    <mergeCell ref="CH43:CL43"/>
+    <mergeCell ref="CH39:CL39"/>
+    <mergeCell ref="CH40:CL40"/>
+    <mergeCell ref="CH41:CL41"/>
+    <mergeCell ref="CH42:CL42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34188,21 +34244,21 @@
   <sheetData>
     <row r="3" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="386" t="s">
+      <c r="C4" s="430" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="387"/>
-      <c r="E4" s="387"/>
-      <c r="F4" s="387"/>
-      <c r="G4" s="387"/>
-      <c r="H4" s="387"/>
-      <c r="I4" s="387"/>
-      <c r="J4" s="387"/>
-      <c r="K4" s="387"/>
-      <c r="L4" s="387"/>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387"/>
-      <c r="O4" s="388"/>
+      <c r="D4" s="431"/>
+      <c r="E4" s="431"/>
+      <c r="F4" s="431"/>
+      <c r="G4" s="431"/>
+      <c r="H4" s="431"/>
+      <c r="I4" s="431"/>
+      <c r="J4" s="431"/>
+      <c r="K4" s="431"/>
+      <c r="L4" s="431"/>
+      <c r="M4" s="431"/>
+      <c r="N4" s="431"/>
+      <c r="O4" s="432"/>
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -34256,11 +34312,11 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="389" t="s">
+      <c r="M6" s="433" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="390"/>
-      <c r="O6" s="391"/>
+      <c r="N6" s="434"/>
+      <c r="O6" s="435"/>
     </row>
     <row r="7" spans="3:19" ht="21" x14ac:dyDescent="0.25">
       <c r="C7" s="25">
@@ -34302,11 +34358,11 @@
       <c r="J8" s="12"/>
       <c r="K8" s="7"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="389" t="s">
+      <c r="M8" s="433" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="390"/>
-      <c r="O8" s="391"/>
+      <c r="N8" s="434"/>
+      <c r="O8" s="435"/>
     </row>
     <row r="9" spans="3:19" ht="21" x14ac:dyDescent="0.25">
       <c r="C9" s="25">
@@ -34348,11 +34404,11 @@
       <c r="J10" s="36"/>
       <c r="K10" s="7"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="389" t="s">
+      <c r="M10" s="433" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="390"/>
-      <c r="O10" s="391"/>
+      <c r="N10" s="434"/>
+      <c r="O10" s="435"/>
     </row>
     <row r="11" spans="3:19" ht="21" x14ac:dyDescent="0.25">
       <c r="C11" s="25">
@@ -34369,11 +34425,11 @@
       <c r="J11" s="12"/>
       <c r="K11" s="7"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="392" t="s">
+      <c r="M11" s="436" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="393"/>
-      <c r="O11" s="394"/>
+      <c r="N11" s="437"/>
+      <c r="O11" s="438"/>
     </row>
     <row r="12" spans="3:19" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="25">
@@ -34388,11 +34444,11 @@
       <c r="J12" s="12"/>
       <c r="K12" s="38"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="389">
+      <c r="M12" s="433">
         <v>15</v>
       </c>
-      <c r="N12" s="390"/>
-      <c r="O12" s="391"/>
+      <c r="N12" s="434"/>
+      <c r="O12" s="435"/>
     </row>
     <row r="13" spans="3:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="26">
@@ -34427,21 +34483,21 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="3:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="386" t="s">
+      <c r="C15" s="430" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="387"/>
-      <c r="E15" s="387"/>
-      <c r="F15" s="387"/>
-      <c r="G15" s="387"/>
-      <c r="H15" s="387"/>
-      <c r="I15" s="387"/>
-      <c r="J15" s="387"/>
-      <c r="K15" s="387"/>
-      <c r="L15" s="387"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="387"/>
-      <c r="O15" s="388"/>
+      <c r="D15" s="431"/>
+      <c r="E15" s="431"/>
+      <c r="F15" s="431"/>
+      <c r="G15" s="431"/>
+      <c r="H15" s="431"/>
+      <c r="I15" s="431"/>
+      <c r="J15" s="431"/>
+      <c r="K15" s="431"/>
+      <c r="L15" s="431"/>
+      <c r="M15" s="431"/>
+      <c r="N15" s="431"/>
+      <c r="O15" s="432"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30"/>
@@ -34819,17 +34875,17 @@
     </row>
     <row r="2" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47"/>
-      <c r="C2" s="413" t="s">
+      <c r="C2" s="439" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="414"/>
-      <c r="E2" s="414"/>
-      <c r="F2" s="414"/>
-      <c r="G2" s="414"/>
-      <c r="H2" s="414"/>
-      <c r="I2" s="414"/>
-      <c r="J2" s="414"/>
-      <c r="K2" s="415"/>
+      <c r="D2" s="440"/>
+      <c r="E2" s="440"/>
+      <c r="F2" s="440"/>
+      <c r="G2" s="440"/>
+      <c r="H2" s="440"/>
+      <c r="I2" s="440"/>
+      <c r="J2" s="440"/>
+      <c r="K2" s="441"/>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
       <c r="N2" s="52"/>
@@ -35159,72 +35215,72 @@
     </row>
     <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="47"/>
-      <c r="C15" s="416" t="s">
+      <c r="C15" s="445" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="417"/>
-      <c r="E15" s="418"/>
-      <c r="F15" s="416" t="s">
+      <c r="D15" s="446"/>
+      <c r="E15" s="447"/>
+      <c r="F15" s="445" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="417"/>
-      <c r="H15" s="418"/>
-      <c r="I15" s="416" t="s">
+      <c r="G15" s="446"/>
+      <c r="H15" s="447"/>
+      <c r="I15" s="445" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="417"/>
-      <c r="K15" s="418"/>
+      <c r="J15" s="446"/>
+      <c r="K15" s="447"/>
       <c r="L15" s="52"/>
-      <c r="M15" s="395" t="s">
+      <c r="M15" s="451" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="396"/>
-      <c r="O15" s="396"/>
-      <c r="P15" s="397"/>
+      <c r="N15" s="452"/>
+      <c r="O15" s="452"/>
+      <c r="P15" s="453"/>
       <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="47"/>
-      <c r="C16" s="419"/>
-      <c r="D16" s="420"/>
-      <c r="E16" s="421"/>
-      <c r="F16" s="419"/>
-      <c r="G16" s="420"/>
-      <c r="H16" s="421"/>
-      <c r="I16" s="419"/>
-      <c r="J16" s="420"/>
-      <c r="K16" s="421"/>
+      <c r="C16" s="448"/>
+      <c r="D16" s="449"/>
+      <c r="E16" s="450"/>
+      <c r="F16" s="448"/>
+      <c r="G16" s="449"/>
+      <c r="H16" s="450"/>
+      <c r="I16" s="448"/>
+      <c r="J16" s="449"/>
+      <c r="K16" s="450"/>
       <c r="L16" s="52"/>
-      <c r="M16" s="398"/>
-      <c r="N16" s="399"/>
-      <c r="O16" s="399"/>
-      <c r="P16" s="400"/>
+      <c r="M16" s="454"/>
+      <c r="N16" s="455"/>
+      <c r="O16" s="455"/>
+      <c r="P16" s="456"/>
       <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="47"/>
-      <c r="C17" s="410" t="s">
+      <c r="C17" s="442" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="411"/>
-      <c r="E17" s="412"/>
-      <c r="F17" s="410" t="s">
+      <c r="D17" s="443"/>
+      <c r="E17" s="444"/>
+      <c r="F17" s="442" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="411"/>
-      <c r="H17" s="412"/>
-      <c r="I17" s="410" t="s">
+      <c r="G17" s="443"/>
+      <c r="H17" s="444"/>
+      <c r="I17" s="442" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="411"/>
-      <c r="K17" s="412"/>
+      <c r="J17" s="443"/>
+      <c r="K17" s="444"/>
       <c r="L17" s="52"/>
-      <c r="M17" s="407">
+      <c r="M17" s="463">
         <v>10</v>
       </c>
-      <c r="N17" s="408"/>
-      <c r="O17" s="408"/>
-      <c r="P17" s="409"/>
+      <c r="N17" s="464"/>
+      <c r="O17" s="464"/>
+      <c r="P17" s="465"/>
       <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="2:17" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -35247,17 +35303,17 @@
     </row>
     <row r="19" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="47"/>
-      <c r="C19" s="353" t="s">
+      <c r="C19" s="355" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="354"/>
-      <c r="E19" s="354"/>
-      <c r="F19" s="354"/>
-      <c r="G19" s="354"/>
-      <c r="H19" s="354"/>
-      <c r="I19" s="354"/>
-      <c r="J19" s="354"/>
-      <c r="K19" s="355"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="356"/>
+      <c r="F19" s="356"/>
+      <c r="G19" s="356"/>
+      <c r="H19" s="356"/>
+      <c r="I19" s="356"/>
+      <c r="J19" s="356"/>
+      <c r="K19" s="357"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
       <c r="N19" s="52"/>
@@ -35595,12 +35651,12 @@
       <c r="J31" s="59"/>
       <c r="K31" s="55"/>
       <c r="L31" s="52"/>
-      <c r="M31" s="401" t="s">
+      <c r="M31" s="457" t="s">
         <v>36</v>
       </c>
-      <c r="N31" s="402"/>
-      <c r="O31" s="402"/>
-      <c r="P31" s="403"/>
+      <c r="N31" s="458"/>
+      <c r="O31" s="458"/>
+      <c r="P31" s="459"/>
       <c r="Q31" s="48"/>
     </row>
     <row r="32" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -35619,10 +35675,10 @@
       <c r="J32" s="54"/>
       <c r="K32" s="55"/>
       <c r="L32" s="52"/>
-      <c r="M32" s="404"/>
-      <c r="N32" s="405"/>
-      <c r="O32" s="405"/>
-      <c r="P32" s="406"/>
+      <c r="M32" s="460"/>
+      <c r="N32" s="461"/>
+      <c r="O32" s="461"/>
+      <c r="P32" s="462"/>
       <c r="Q32" s="48"/>
     </row>
     <row r="33" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -35641,12 +35697,12 @@
       <c r="J33" s="54"/>
       <c r="K33" s="55"/>
       <c r="L33" s="52"/>
-      <c r="M33" s="410">
+      <c r="M33" s="442">
         <v>5</v>
       </c>
-      <c r="N33" s="411"/>
-      <c r="O33" s="411"/>
-      <c r="P33" s="412"/>
+      <c r="N33" s="443"/>
+      <c r="O33" s="443"/>
+      <c r="P33" s="444"/>
       <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="2:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -35691,6 +35747,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M15:P16"/>
+    <mergeCell ref="M31:P32"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="C19:K19"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:H17"/>
@@ -35698,11 +35759,6 @@
     <mergeCell ref="C15:E16"/>
     <mergeCell ref="F15:H16"/>
     <mergeCell ref="I15:K16"/>
-    <mergeCell ref="M15:P16"/>
-    <mergeCell ref="M31:P32"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="C19:K19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
